--- a/dataanalysis/alert/0708.xlsx
+++ b/dataanalysis/alert/0708.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="215">
   <si>
     <t>序号</t>
   </si>
@@ -89,12 +89,24 @@
     <t>最高价</t>
   </si>
   <si>
+    <t>AI预测</t>
+  </si>
+  <si>
+    <t>AI幅度</t>
+  </si>
+  <si>
+    <t>重合</t>
+  </si>
+  <si>
     <t>北陆药业</t>
   </si>
   <si>
     <t>化学制剂</t>
   </si>
   <si>
+    <t>脑机</t>
+  </si>
+  <si>
     <t>否</t>
   </si>
   <si>
@@ -119,24 +131,36 @@
     <t>功率半导体</t>
   </si>
   <si>
+    <t>芯片</t>
+  </si>
+  <si>
     <t>银河磁体</t>
   </si>
   <si>
     <t>磁性材料</t>
   </si>
   <si>
+    <t>稀土永磁</t>
+  </si>
+  <si>
     <t>新国都</t>
   </si>
   <si>
     <t>其他IT设备</t>
   </si>
   <si>
+    <t>支付</t>
+  </si>
+  <si>
     <t>秀强股份</t>
   </si>
   <si>
     <t>家电零部件</t>
   </si>
   <si>
+    <t>BIVP+光伏</t>
+  </si>
+  <si>
     <t>华峰超纤</t>
   </si>
   <si>
@@ -149,9 +173,15 @@
     <t>玻纤制造</t>
   </si>
   <si>
+    <t>玻纤+预赢</t>
+  </si>
+  <si>
     <t>翰宇药业</t>
   </si>
   <si>
+    <t>创新药</t>
+  </si>
+  <si>
     <t>舒泰神</t>
   </si>
   <si>
@@ -161,57 +191,87 @@
     <t>宝莱特</t>
   </si>
   <si>
+    <t>智能医疗</t>
+  </si>
+  <si>
     <t>通光线缆</t>
   </si>
   <si>
     <t>线缆部件及其他</t>
   </si>
   <si>
+    <t>线缆</t>
+  </si>
+  <si>
     <t>联建光电</t>
   </si>
   <si>
     <t>LED</t>
   </si>
   <si>
+    <t>军工 +LED</t>
+  </si>
+  <si>
     <t>迪森股份</t>
   </si>
   <si>
     <t>热力服务</t>
   </si>
   <si>
+    <t>电力</t>
+  </si>
+  <si>
     <t>科恒股份</t>
   </si>
   <si>
     <t>电池化学品</t>
   </si>
   <si>
+    <t>固态电池</t>
+  </si>
+  <si>
     <t>长亮科技</t>
   </si>
   <si>
     <t>行业应用软件</t>
   </si>
   <si>
+    <t>互金</t>
+  </si>
+  <si>
     <t>汇金股份</t>
   </si>
   <si>
     <t>飞天诚信</t>
   </si>
   <si>
+    <t>金融安全</t>
+  </si>
+  <si>
     <t>中光防雷</t>
   </si>
   <si>
     <t>其他通信设备</t>
   </si>
   <si>
+    <t>军工</t>
+  </si>
+  <si>
     <t>强力新材</t>
   </si>
   <si>
     <t>半导体材料</t>
   </si>
   <si>
+    <t>光刻胶</t>
+  </si>
+  <si>
     <t>广生堂</t>
   </si>
   <si>
+    <t>药店</t>
+  </si>
+  <si>
     <t>山河药辅</t>
   </si>
   <si>
@@ -233,6 +293,9 @@
     <t>仪器仪表</t>
   </si>
   <si>
+    <t>机器人 煤炭</t>
+  </si>
+  <si>
     <t>久之洋</t>
   </si>
   <si>
@@ -245,6 +308,9 @@
     <t>地面兵装</t>
   </si>
   <si>
+    <t>军工-地面兵装</t>
+  </si>
+  <si>
     <t>优博讯</t>
   </si>
   <si>
@@ -275,6 +341,9 @@
     <t>航海装备</t>
   </si>
   <si>
+    <t>军工-航海</t>
+  </si>
+  <si>
     <t>万里马</t>
   </si>
   <si>
@@ -287,6 +356,9 @@
     <t>汇纳科技</t>
   </si>
   <si>
+    <t>互金+算力</t>
+  </si>
+  <si>
     <t>正元智慧</t>
   </si>
   <si>
@@ -296,12 +368,18 @@
     <t>园林工程</t>
   </si>
   <si>
+    <t>稳定币</t>
+  </si>
+  <si>
     <t>大烨智能</t>
   </si>
   <si>
     <t>配电设备</t>
   </si>
   <si>
+    <t>海工+风电</t>
+  </si>
+  <si>
     <t>朗新集团</t>
   </si>
   <si>
@@ -311,6 +389,9 @@
     <t>铜</t>
   </si>
   <si>
+    <t>铜缆</t>
+  </si>
+  <si>
     <t>爱朋医疗</t>
   </si>
   <si>
@@ -326,6 +407,9 @@
     <t>工程咨询服务</t>
   </si>
   <si>
+    <t>智慧城市</t>
+  </si>
+  <si>
     <t>指南针</t>
   </si>
   <si>
@@ -335,18 +419,27 @@
     <t>有机硅</t>
   </si>
   <si>
+    <t>硅</t>
+  </si>
+  <si>
     <t>中船汉光</t>
   </si>
   <si>
     <t>其他化学制品</t>
   </si>
   <si>
+    <t>军工-船舶</t>
+  </si>
+  <si>
     <t>科拓生物</t>
   </si>
   <si>
     <t>食品助剂</t>
   </si>
   <si>
+    <t>食物</t>
+  </si>
+  <si>
     <t>天阳科技</t>
   </si>
   <si>
@@ -359,48 +452,72 @@
     <t>山科智能</t>
   </si>
   <si>
+    <t>AI+管网</t>
+  </si>
+  <si>
     <t>科翔股份</t>
   </si>
   <si>
     <t>PCB</t>
   </si>
   <si>
+    <t>固态电池+PCB</t>
+  </si>
+  <si>
     <t>德必集团</t>
   </si>
   <si>
     <t>商业物业经营</t>
   </si>
   <si>
+    <t>新消费+IP</t>
+  </si>
+  <si>
     <t>博亚精工</t>
   </si>
   <si>
     <t>机械基础件</t>
   </si>
   <si>
+    <t>军工+赔偿金1500w</t>
+  </si>
+  <si>
     <t>苏文电能</t>
   </si>
   <si>
     <t>基建工程</t>
   </si>
   <si>
+    <t>光伏</t>
+  </si>
+  <si>
     <t>创益通</t>
   </si>
   <si>
     <t>消费电子组件</t>
   </si>
   <si>
+    <t>铜缆+比亚迪</t>
+  </si>
+  <si>
     <t>玉马科技</t>
   </si>
   <si>
     <t>其他家居</t>
   </si>
   <si>
+    <t>家居</t>
+  </si>
+  <si>
     <t>德迈仕</t>
   </si>
   <si>
     <t>底盘与发动机系统</t>
   </si>
   <si>
+    <t>重组+丝杠</t>
+  </si>
+  <si>
     <t>霍普股份</t>
   </si>
   <si>
@@ -422,18 +539,30 @@
     <t>天亿马</t>
   </si>
   <si>
+    <t>重组 收购物联网平台</t>
+  </si>
+  <si>
     <t>工大科雅</t>
   </si>
   <si>
+    <t>华为鲲鹏</t>
+  </si>
+  <si>
     <t>联特科技</t>
   </si>
   <si>
     <t>网络接配及塔设</t>
   </si>
   <si>
+    <t>CPO</t>
+  </si>
+  <si>
     <t>铜冠铜箔</t>
   </si>
   <si>
+    <t>铜箔</t>
+  </si>
+  <si>
     <t>西测测试</t>
   </si>
   <si>
@@ -452,12 +581,18 @@
     <t>其他自动化设备</t>
   </si>
   <si>
+    <t>半导体设备</t>
+  </si>
+  <si>
     <t>涛涛车业</t>
   </si>
   <si>
     <t>其他交通设备</t>
   </si>
   <si>
+    <t>无人车+预赢</t>
+  </si>
+  <si>
     <t>北方长龙</t>
   </si>
   <si>
@@ -473,6 +608,9 @@
     <t>隆扬电子</t>
   </si>
   <si>
+    <t>铜箔+英伟达</t>
+  </si>
+  <si>
     <t>华人健康</t>
   </si>
   <si>
@@ -488,6 +626,9 @@
     <t>德福科技</t>
   </si>
   <si>
+    <t>固态-铜箔</t>
+  </si>
+  <si>
     <t>国际复材</t>
   </si>
   <si>
@@ -500,12 +641,21 @@
     <t>前沿生物-U</t>
   </si>
   <si>
+    <t>创新药-艾滋病</t>
+  </si>
+  <si>
     <t>金橙子</t>
   </si>
   <si>
+    <t>3D打印</t>
+  </si>
+  <si>
     <t>微芯生物</t>
   </si>
   <si>
+    <t>医药</t>
+  </si>
+  <si>
     <t>利元亨</t>
   </si>
   <si>
@@ -513,6 +663,9 @@
   </si>
   <si>
     <t>汇宇制药-W</t>
+  </si>
+  <si>
+    <t>创新药-肿瘤</t>
   </si>
   <si>
     <t>艾罗能源</t>
@@ -532,7 +685,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -574,6 +727,12 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFDE322C"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1071,16 +1230,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1089,119 +1245,122 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1220,32 +1379,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1779,10 +1948,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T90"/>
+  <dimension ref="A1:W90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:R90"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1:W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1790,7 +1959,7 @@
     <col min="14" max="15" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24" spans="1:20">
+    <row r="1" ht="24" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1836,7 +2005,7 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
@@ -1851,8 +2020,17 @@
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1863,7 +2041,7 @@
         <v>300016</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2" s="4">
         <v>4.64</v>
@@ -1872,13 +2050,21 @@
         <v>10.15</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="H2" s="4">
+        <v>-4.04</v>
+      </c>
+      <c r="I2" s="4">
+        <v>10</v>
+      </c>
+      <c r="J2" s="8">
+        <v>-1.48</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="10"/>
       <c r="M2" s="4">
         <v>12</v>
       </c>
@@ -1888,19 +2074,32 @@
       <c r="O2" s="4">
         <v>-35126330</v>
       </c>
-      <c r="P2" s="10">
+      <c r="P2" s="11">
         <v>0.86</v>
       </c>
-      <c r="Q2" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R2" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="Q2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U2" s="14">
+        <v>1</v>
+      </c>
+      <c r="V2" s="15">
+        <v>3.37</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1911,7 +2110,7 @@
         <v>300030</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E3" s="4">
         <v>-2.96</v>
@@ -1920,13 +2119,21 @@
         <v>8.52</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="H3" s="4">
+        <v>-4.23</v>
+      </c>
+      <c r="I3" s="4">
+        <v>8.38</v>
+      </c>
+      <c r="J3" s="8">
+        <v>-1.64</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="10"/>
       <c r="M3" s="4">
         <v>4</v>
       </c>
@@ -1939,16 +2146,29 @@
       <c r="P3" s="4">
         <v>-0.74</v>
       </c>
-      <c r="Q3" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R3" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="Q3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U3" s="16">
+        <v>0</v>
+      </c>
+      <c r="V3" s="15">
+        <v>1.97</v>
+      </c>
+      <c r="W3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1959,7 +2179,7 @@
         <v>300043</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E4" s="4">
         <v>2.26</v>
@@ -1968,13 +2188,21 @@
         <v>4.98</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="H4" s="4">
+        <v>-3.01</v>
+      </c>
+      <c r="I4" s="4">
+        <v>4.99</v>
+      </c>
+      <c r="J4" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="10"/>
       <c r="M4" s="4">
         <v>2</v>
       </c>
@@ -1984,19 +2212,32 @@
       <c r="O4" s="4">
         <v>36820582</v>
       </c>
-      <c r="P4" s="10">
+      <c r="P4" s="11">
         <v>0.32</v>
       </c>
-      <c r="Q4" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R4" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-    </row>
-    <row r="5" spans="1:20">
+      <c r="Q4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T4" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U4" s="16">
+        <v>0</v>
+      </c>
+      <c r="V4" s="15">
+        <v>1.21</v>
+      </c>
+      <c r="W4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2007,7 +2248,7 @@
         <v>300046</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E5" s="4">
         <v>0.22</v>
@@ -2016,13 +2257,21 @@
         <v>40.51</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
+        <v>33</v>
+      </c>
+      <c r="H5" s="4">
+        <v>-1.23</v>
+      </c>
+      <c r="I5" s="4">
+        <v>41.75</v>
+      </c>
+      <c r="J5" s="8">
+        <v>3.06</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="10"/>
       <c r="M5" s="4">
         <v>6</v>
       </c>
@@ -2035,16 +2284,29 @@
       <c r="P5" s="4">
         <v>0.17</v>
       </c>
-      <c r="Q5" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R5" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="Q5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U5" s="16">
+        <v>0</v>
+      </c>
+      <c r="V5" s="15">
+        <v>5.04</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2055,7 +2317,7 @@
         <v>300127</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E6" s="4">
         <v>7.28</v>
@@ -2064,13 +2326,21 @@
         <v>30.51</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="H6" s="4">
+        <v>-4.13</v>
+      </c>
+      <c r="I6" s="4">
+        <v>30.33</v>
+      </c>
+      <c r="J6" s="8">
+        <v>-0.59</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="10"/>
       <c r="M6" s="4">
         <v>1</v>
       </c>
@@ -2080,19 +2350,32 @@
       <c r="O6" s="4">
         <v>204357598</v>
       </c>
-      <c r="P6" s="10">
+      <c r="P6" s="11">
         <v>1.53</v>
       </c>
-      <c r="Q6" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="R6" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-    </row>
-    <row r="7" spans="1:20">
+      <c r="Q6" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="R6" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="S6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U6" s="14">
+        <v>1</v>
+      </c>
+      <c r="V6" s="15">
+        <v>6.36</v>
+      </c>
+      <c r="W6" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2103,7 +2386,7 @@
         <v>300130</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E7" s="4">
         <v>2.02</v>
@@ -2112,13 +2395,21 @@
         <v>36.31</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="H7" s="4">
+        <v>-0.77</v>
+      </c>
+      <c r="I7" s="4">
+        <v>37.28</v>
+      </c>
+      <c r="J7" s="8">
+        <v>2.67</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="10"/>
       <c r="M7" s="4">
         <v>16</v>
       </c>
@@ -2128,19 +2419,32 @@
       <c r="O7" s="4">
         <v>105621370</v>
       </c>
-      <c r="P7" s="10">
+      <c r="P7" s="11">
         <v>0.69</v>
       </c>
-      <c r="Q7" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R7" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="Q7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U7" s="16">
+        <v>0</v>
+      </c>
+      <c r="V7" s="15">
+        <v>3.92</v>
+      </c>
+      <c r="W7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2151,7 +2455,7 @@
         <v>300160</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E8" s="4">
         <v>5</v>
@@ -2160,13 +2464,21 @@
         <v>6.51</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
+        <v>42</v>
+      </c>
+      <c r="H8" s="4">
+        <v>-2.3</v>
+      </c>
+      <c r="I8" s="4">
+        <v>6.72</v>
+      </c>
+      <c r="J8" s="8">
+        <v>3.23</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="10"/>
       <c r="M8" s="4">
         <v>5</v>
       </c>
@@ -2179,16 +2491,29 @@
       <c r="P8" s="4">
         <v>0.05</v>
       </c>
-      <c r="Q8" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R8" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-    </row>
-    <row r="9" spans="1:20">
+      <c r="Q8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U8" s="16">
+        <v>0</v>
+      </c>
+      <c r="V8" s="15">
+        <v>1.88</v>
+      </c>
+      <c r="W8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2199,7 +2524,7 @@
         <v>300180</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E9" s="4">
         <v>0.91</v>
@@ -2208,13 +2533,21 @@
         <v>9.95</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="H9" s="4">
+        <v>-1.51</v>
+      </c>
+      <c r="I9" s="4">
+        <v>10.04</v>
+      </c>
+      <c r="J9" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="10"/>
       <c r="M9" s="4">
         <v>15</v>
       </c>
@@ -2227,16 +2560,29 @@
       <c r="P9" s="4">
         <v>-0.57</v>
       </c>
-      <c r="Q9" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-    </row>
-    <row r="10" spans="1:20">
+      <c r="Q9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R9" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S9" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T9" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U9" s="16">
+        <v>0</v>
+      </c>
+      <c r="V9" s="15">
+        <v>8.92</v>
+      </c>
+      <c r="W9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2247,7 +2593,7 @@
         <v>300196</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E10" s="4">
         <v>6.61</v>
@@ -2256,13 +2602,21 @@
         <v>15.33</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
+        <v>47</v>
+      </c>
+      <c r="H10" s="4">
+        <v>-0.33</v>
+      </c>
+      <c r="I10" s="4">
+        <v>15.8</v>
+      </c>
+      <c r="J10" s="8">
+        <v>3.07</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="L10" s="10"/>
       <c r="M10" s="4">
         <v>5</v>
       </c>
@@ -2272,19 +2626,32 @@
       <c r="O10" s="4">
         <v>48601977</v>
       </c>
-      <c r="P10" s="10">
+      <c r="P10" s="11">
         <v>0.64</v>
       </c>
-      <c r="Q10" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-    </row>
-    <row r="11" spans="1:20">
+      <c r="Q10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R10" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S10" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T10" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U10" s="16">
+        <v>0</v>
+      </c>
+      <c r="V10" s="15">
+        <v>3.01</v>
+      </c>
+      <c r="W10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2295,7 +2662,7 @@
         <v>300199</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E11" s="4">
         <v>-2.33</v>
@@ -2304,13 +2671,21 @@
         <v>18.44</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1.74</v>
+      </c>
+      <c r="I11" s="4">
+        <v>19.16</v>
+      </c>
+      <c r="J11" s="8">
+        <v>3.9</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="L11" s="10"/>
       <c r="M11" s="4">
         <v>5</v>
       </c>
@@ -2323,16 +2698,29 @@
       <c r="P11" s="4">
         <v>-1.58</v>
       </c>
-      <c r="Q11" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R11" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-    </row>
-    <row r="12" spans="1:20">
+      <c r="Q11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R11" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S11" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T11" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U11" s="16">
+        <v>0</v>
+      </c>
+      <c r="V11" s="15">
+        <v>-0.39</v>
+      </c>
+      <c r="W11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2343,7 +2731,7 @@
         <v>300204</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E12" s="4">
         <v>-7.91</v>
@@ -2352,13 +2740,21 @@
         <v>40.63</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
+        <v>52</v>
+      </c>
+      <c r="H12" s="4">
+        <v>-0.32</v>
+      </c>
+      <c r="I12" s="4">
+        <v>41.66</v>
+      </c>
+      <c r="J12" s="8">
+        <v>2.54</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="L12" s="10"/>
       <c r="M12" s="4">
         <v>34</v>
       </c>
@@ -2371,16 +2767,29 @@
       <c r="P12" s="4">
         <v>-0.84</v>
       </c>
-      <c r="Q12" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R12" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-    </row>
-    <row r="13" spans="1:20">
+      <c r="Q12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U12" s="16">
+        <v>0</v>
+      </c>
+      <c r="V12" s="15">
+        <v>7.74</v>
+      </c>
+      <c r="W12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2391,7 +2800,7 @@
         <v>300246</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E13" s="4">
         <v>5.13</v>
@@ -2400,13 +2809,21 @@
         <v>10.46</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="H13" s="4">
+        <v>-2.68</v>
+      </c>
+      <c r="I13" s="4">
+        <v>10.48</v>
+      </c>
+      <c r="J13" s="8">
+        <v>0.19</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L13" s="10"/>
       <c r="M13" s="4">
         <v>1</v>
       </c>
@@ -2419,16 +2836,29 @@
       <c r="P13" s="4">
         <v>-0.65</v>
       </c>
-      <c r="Q13" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R13" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-    </row>
-    <row r="14" spans="1:20">
+      <c r="Q13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U13" s="16">
+        <v>0</v>
+      </c>
+      <c r="V13" s="15">
+        <v>5.36</v>
+      </c>
+      <c r="W13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2439,7 +2869,7 @@
         <v>300265</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E14" s="4">
         <v>-1.55</v>
@@ -2448,13 +2878,21 @@
         <v>10.16</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
+        <v>56</v>
+      </c>
+      <c r="H14" s="4">
+        <v>-0.1</v>
+      </c>
+      <c r="I14" s="4">
+        <v>10.37</v>
+      </c>
+      <c r="J14" s="8">
+        <v>2.07</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="L14" s="10"/>
       <c r="M14" s="4">
         <v>2</v>
       </c>
@@ -2467,16 +2905,29 @@
       <c r="P14" s="4">
         <v>-0.29</v>
       </c>
-      <c r="Q14" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R14" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-    </row>
-    <row r="15" spans="1:20">
+      <c r="Q14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R14" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S14" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T14" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U14" s="16">
+        <v>0</v>
+      </c>
+      <c r="V14" s="15">
+        <v>1.05</v>
+      </c>
+      <c r="W14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2487,7 +2938,7 @@
         <v>300269</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="E15" s="4">
         <v>1.42</v>
@@ -2496,13 +2947,21 @@
         <v>5.7</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
+        <v>59</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="I15" s="4">
+        <v>6.1</v>
+      </c>
+      <c r="J15" s="8">
+        <v>7.02</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="L15" s="10"/>
       <c r="M15" s="4">
         <v>7</v>
       </c>
@@ -2515,16 +2974,29 @@
       <c r="P15" s="4">
         <v>-0.06</v>
       </c>
-      <c r="Q15" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R15" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-    </row>
-    <row r="16" spans="1:20">
+      <c r="Q15" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R15" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S15" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T15" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="U15" s="16">
+        <v>0</v>
+      </c>
+      <c r="V15" s="15">
+        <v>-0.57</v>
+      </c>
+      <c r="W15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2535,7 +3007,7 @@
         <v>300335</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E16" s="4">
         <v>-6.21</v>
@@ -2544,13 +3016,21 @@
         <v>6.65</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
+        <v>62</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="I16" s="4">
+        <v>6.96</v>
+      </c>
+      <c r="J16" s="8">
+        <v>4.66</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L16" s="10"/>
       <c r="M16" s="4">
         <v>2</v>
       </c>
@@ -2563,16 +3043,29 @@
       <c r="P16" s="4">
         <v>-2.19</v>
       </c>
-      <c r="Q16" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R16" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-    </row>
-    <row r="17" spans="1:20">
+      <c r="Q16" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R16" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S16" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T16" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U16" s="16">
+        <v>0</v>
+      </c>
+      <c r="V16" s="15">
+        <v>2.59</v>
+      </c>
+      <c r="W16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2583,7 +3076,7 @@
         <v>300340</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="E17" s="4">
         <v>0.05</v>
@@ -2592,13 +3085,21 @@
         <v>18.48</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
+        <v>65</v>
+      </c>
+      <c r="H17" s="4">
+        <v>-5.14</v>
+      </c>
+      <c r="I17" s="4">
+        <v>18.45</v>
+      </c>
+      <c r="J17" s="8">
+        <v>-0.16</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L17" s="10"/>
       <c r="M17" s="4">
         <v>21</v>
       </c>
@@ -2611,16 +3112,29 @@
       <c r="P17" s="4">
         <v>0.08</v>
       </c>
-      <c r="Q17" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R17" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-    </row>
-    <row r="18" spans="1:20">
+      <c r="Q17" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R17" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S17" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T17" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U17" s="16">
+        <v>0</v>
+      </c>
+      <c r="V17" s="15">
+        <v>5.05</v>
+      </c>
+      <c r="W17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2631,7 +3145,7 @@
         <v>300348</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E18" s="4">
         <v>2.72</v>
@@ -2640,13 +3154,21 @@
         <v>19.26</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
+        <v>68</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0.47</v>
+      </c>
+      <c r="I18" s="4">
+        <v>19.97</v>
+      </c>
+      <c r="J18" s="8">
+        <v>3.69</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="L18" s="10"/>
       <c r="M18" s="4">
         <v>1</v>
       </c>
@@ -2656,19 +3178,32 @@
       <c r="O18" s="4">
         <v>125626640</v>
       </c>
-      <c r="P18" s="10">
+      <c r="P18" s="11">
         <v>0.84</v>
       </c>
-      <c r="Q18" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R18" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-    </row>
-    <row r="19" spans="1:20">
+      <c r="Q18" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R18" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="S18" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T18" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U18" s="16">
+        <v>0</v>
+      </c>
+      <c r="V18" s="15">
+        <v>3.64</v>
+      </c>
+      <c r="W18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -2679,7 +3214,7 @@
         <v>300368</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="E19" s="4">
         <v>8.04</v>
@@ -2688,13 +3223,21 @@
         <v>12.76</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="H19" s="4">
+        <v>-3.06</v>
+      </c>
+      <c r="I19" s="4">
+        <v>13</v>
+      </c>
+      <c r="J19" s="8">
+        <v>1.88</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L19" s="10"/>
       <c r="M19" s="4">
         <v>4</v>
       </c>
@@ -2704,19 +3247,32 @@
       <c r="O19" s="4">
         <v>119404751</v>
       </c>
-      <c r="P19" s="10">
+      <c r="P19" s="11">
         <v>1.38</v>
       </c>
-      <c r="Q19" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R19" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
-    </row>
-    <row r="20" spans="1:20">
+      <c r="Q19" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R19" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S19" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T19" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U19" s="16">
+        <v>0</v>
+      </c>
+      <c r="V19" s="15">
+        <v>-0.14</v>
+      </c>
+      <c r="W19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2727,7 +3283,7 @@
         <v>300386</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="E20" s="4">
         <v>0.86</v>
@@ -2736,13 +3292,21 @@
         <v>22.35</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="H20" s="4">
+        <v>-3.62</v>
+      </c>
+      <c r="I20" s="4">
+        <v>22.18</v>
+      </c>
+      <c r="J20" s="8">
+        <v>-0.76</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="L20" s="10"/>
       <c r="M20" s="4">
         <v>1</v>
       </c>
@@ -2755,16 +3319,29 @@
       <c r="P20" s="4">
         <v>0.19</v>
       </c>
-      <c r="Q20" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R20" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
-    </row>
-    <row r="21" spans="1:20">
+      <c r="Q20" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R20" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S20" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T20" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U20" s="14">
+        <v>1</v>
+      </c>
+      <c r="V20" s="15">
+        <v>7.15</v>
+      </c>
+      <c r="W20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2775,7 +3352,7 @@
         <v>300414</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E21" s="4">
         <v>-1.65</v>
@@ -2784,13 +3361,21 @@
         <v>13.15</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
+        <v>74</v>
+      </c>
+      <c r="H21" s="4">
+        <v>1.22</v>
+      </c>
+      <c r="I21" s="4">
+        <v>14</v>
+      </c>
+      <c r="J21" s="8">
+        <v>6.46</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="L21" s="10"/>
       <c r="M21" s="4">
         <v>2</v>
       </c>
@@ -2803,16 +3388,29 @@
       <c r="P21" s="4">
         <v>-0.51</v>
       </c>
-      <c r="Q21" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R21" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="S21" s="13"/>
-      <c r="T21" s="13"/>
-    </row>
-    <row r="22" spans="1:20">
+      <c r="Q21" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R21" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S21" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T21" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="U21" s="16">
+        <v>0</v>
+      </c>
+      <c r="V21" s="15">
+        <v>5.73</v>
+      </c>
+      <c r="W21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2823,7 +3421,7 @@
         <v>300429</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="E22" s="4">
         <v>0.64</v>
@@ -2832,13 +3430,21 @@
         <v>14.15</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
+        <v>77</v>
+      </c>
+      <c r="H22" s="4">
+        <v>-2.12</v>
+      </c>
+      <c r="I22" s="4">
+        <v>14.25</v>
+      </c>
+      <c r="J22" s="8">
+        <v>0.71</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="L22" s="10"/>
       <c r="M22" s="4">
         <v>6</v>
       </c>
@@ -2851,16 +3457,29 @@
       <c r="P22" s="4">
         <v>-0.4</v>
       </c>
-      <c r="Q22" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R22" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-    </row>
-    <row r="23" spans="1:20">
+      <c r="Q22" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R22" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S22" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T22" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U22" s="16">
+        <v>0</v>
+      </c>
+      <c r="V22" s="15">
+        <v>2.78</v>
+      </c>
+      <c r="W22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -2871,7 +3490,7 @@
         <v>300436</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="E23" s="4">
         <v>7.75</v>
@@ -2880,13 +3499,21 @@
         <v>60.22</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="H23" s="4">
+        <v>-3.16</v>
+      </c>
+      <c r="I23" s="4">
+        <v>63.5</v>
+      </c>
+      <c r="J23" s="8">
+        <v>5.45</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="L23" s="10"/>
       <c r="M23" s="4">
         <v>4</v>
       </c>
@@ -2896,19 +3523,32 @@
       <c r="O23" s="4">
         <v>59689896</v>
       </c>
-      <c r="P23" s="10">
+      <c r="P23" s="11">
         <v>0.34</v>
       </c>
-      <c r="Q23" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R23" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="S23" s="13"/>
-      <c r="T23" s="13"/>
-    </row>
-    <row r="24" spans="1:20">
+      <c r="Q23" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R23" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S23" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T23" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="U23" s="16">
+        <v>0</v>
+      </c>
+      <c r="V23" s="15">
+        <v>5.72</v>
+      </c>
+      <c r="W23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -2919,7 +3559,7 @@
         <v>300452</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="E24" s="4">
         <v>0.28</v>
@@ -2928,13 +3568,21 @@
         <v>14.3</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
+        <v>82</v>
+      </c>
+      <c r="H24" s="4">
+        <v>-2.52</v>
+      </c>
+      <c r="I24" s="4">
+        <v>14.27</v>
+      </c>
+      <c r="J24" s="8">
+        <v>-0.21</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="L24" s="10"/>
       <c r="M24" s="4">
         <v>5</v>
       </c>
@@ -2947,16 +3595,29 @@
       <c r="P24" s="4">
         <v>-0.16</v>
       </c>
-      <c r="Q24" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R24" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="S24" s="13"/>
-      <c r="T24" s="13"/>
-    </row>
-    <row r="25" spans="1:20">
+      <c r="Q24" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R24" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S24" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T24" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U24" s="16">
+        <v>0</v>
+      </c>
+      <c r="V24" s="15">
+        <v>3.65</v>
+      </c>
+      <c r="W24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -2967,7 +3628,7 @@
         <v>300468</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="E25" s="4">
         <v>1.07</v>
@@ -2976,13 +3637,21 @@
         <v>49.2</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
+        <v>68</v>
+      </c>
+      <c r="H25" s="4">
+        <v>-1.99</v>
+      </c>
+      <c r="I25" s="4">
+        <v>49.24</v>
+      </c>
+      <c r="J25" s="8">
+        <v>0.08</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L25" s="10"/>
       <c r="M25" s="4">
         <v>25</v>
       </c>
@@ -2992,19 +3661,32 @@
       <c r="O25" s="4">
         <v>253208130</v>
       </c>
-      <c r="P25" s="10">
+      <c r="P25" s="11">
         <v>0.61</v>
       </c>
-      <c r="Q25" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R25" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="S25" s="13"/>
-      <c r="T25" s="13"/>
-    </row>
-    <row r="26" spans="1:20">
+      <c r="Q25" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R25" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S25" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T25" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U25" s="14">
+        <v>1</v>
+      </c>
+      <c r="V25" s="15">
+        <v>7.39</v>
+      </c>
+      <c r="W25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -3015,7 +3697,7 @@
         <v>300485</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="E26" s="4">
         <v>0.85</v>
@@ -3024,13 +3706,21 @@
         <v>14.31</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
+        <v>85</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0.42</v>
+      </c>
+      <c r="I26" s="4">
+        <v>14.39</v>
+      </c>
+      <c r="J26" s="8">
+        <v>0.56</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="L26" s="10"/>
       <c r="M26" s="4">
         <v>21</v>
       </c>
@@ -3043,16 +3733,29 @@
       <c r="P26" s="4">
         <v>-0.33</v>
       </c>
-      <c r="Q26" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R26" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="S26" s="13"/>
-      <c r="T26" s="13"/>
-    </row>
-    <row r="27" spans="1:20">
+      <c r="Q26" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R26" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S26" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T26" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U26" s="16">
+        <v>0</v>
+      </c>
+      <c r="V26" s="15">
+        <v>5.23</v>
+      </c>
+      <c r="W26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -3063,7 +3766,7 @@
         <v>300515</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="E27" s="4">
         <v>-2.8</v>
@@ -3072,13 +3775,21 @@
         <v>25.3</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
+        <v>87</v>
+      </c>
+      <c r="H27" s="4">
+        <v>-0.79</v>
+      </c>
+      <c r="I27" s="4">
+        <v>25.5</v>
+      </c>
+      <c r="J27" s="8">
+        <v>0.79</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="L27" s="10"/>
       <c r="M27" s="4">
         <v>10</v>
       </c>
@@ -3091,16 +3802,29 @@
       <c r="P27" s="4">
         <v>-0.4</v>
       </c>
-      <c r="Q27" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R27" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="S27" s="13"/>
-      <c r="T27" s="13"/>
-    </row>
-    <row r="28" spans="1:20">
+      <c r="Q27" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R27" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S27" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T27" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U27" s="16">
+        <v>0</v>
+      </c>
+      <c r="V27" s="15">
+        <v>2.51</v>
+      </c>
+      <c r="W27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -3111,7 +3835,7 @@
         <v>300516</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="E28" s="4">
         <v>-0.5</v>
@@ -3120,13 +3844,21 @@
         <v>40.1</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
+        <v>90</v>
+      </c>
+      <c r="H28" s="4">
+        <v>-2.39</v>
+      </c>
+      <c r="I28" s="4">
+        <v>40.09</v>
+      </c>
+      <c r="J28" s="8">
+        <v>-0.02</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="L28" s="10"/>
       <c r="M28" s="4">
         <v>4</v>
       </c>
@@ -3139,16 +3871,29 @@
       <c r="P28" s="4">
         <v>0.07</v>
       </c>
-      <c r="Q28" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R28" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="S28" s="13"/>
-      <c r="T28" s="13"/>
-    </row>
-    <row r="29" spans="1:20">
+      <c r="Q28" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R28" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S28" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T28" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U28" s="16">
+        <v>0</v>
+      </c>
+      <c r="V28" s="15">
+        <v>3.3</v>
+      </c>
+      <c r="W28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -3159,7 +3904,7 @@
         <v>300527</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="E29" s="4">
         <v>-5.34</v>
@@ -3168,13 +3913,21 @@
         <v>11.17</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
+        <v>92</v>
+      </c>
+      <c r="H29" s="4">
+        <v>-2.15</v>
+      </c>
+      <c r="I29" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="J29" s="8">
+        <v>2.95</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="L29" s="10"/>
       <c r="M29" s="4">
         <v>6</v>
       </c>
@@ -3187,16 +3940,29 @@
       <c r="P29" s="4">
         <v>-0.67</v>
       </c>
-      <c r="Q29" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R29" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
-    </row>
-    <row r="30" spans="1:20">
+      <c r="Q29" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R29" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S29" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T29" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U29" s="16">
+        <v>0</v>
+      </c>
+      <c r="V29" s="15">
+        <v>6.38</v>
+      </c>
+      <c r="W29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -3207,7 +3973,7 @@
         <v>300531</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="E30" s="4">
         <v>3.48</v>
@@ -3216,13 +3982,21 @@
         <v>22.58</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="H30" s="4">
+        <v>-3.37</v>
+      </c>
+      <c r="I30" s="4">
+        <v>22.34</v>
+      </c>
+      <c r="J30" s="8">
+        <v>-1.06</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L30" s="10"/>
       <c r="M30" s="4">
         <v>15</v>
       </c>
@@ -3232,19 +4006,32 @@
       <c r="O30" s="4">
         <v>59466120</v>
       </c>
-      <c r="P30" s="10">
+      <c r="P30" s="11">
         <v>0.6</v>
       </c>
-      <c r="Q30" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R30" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="S30" s="13"/>
-      <c r="T30" s="13"/>
-    </row>
-    <row r="31" spans="1:20">
+      <c r="Q30" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R30" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S30" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T30" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U30" s="16">
+        <v>0</v>
+      </c>
+      <c r="V30" s="15">
+        <v>4.27</v>
+      </c>
+      <c r="W30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -3255,7 +4042,7 @@
         <v>300533</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="E31" s="4">
         <v>10.01</v>
@@ -3264,13 +4051,21 @@
         <v>39.22</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="H31" s="4">
+        <v>0.43</v>
+      </c>
+      <c r="I31" s="4">
+        <v>40.56</v>
+      </c>
+      <c r="J31" s="8">
+        <v>3.42</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L31" s="10"/>
       <c r="M31" s="4">
         <v>10</v>
       </c>
@@ -3283,16 +4078,29 @@
       <c r="P31" s="4">
         <v>0.21</v>
       </c>
-      <c r="Q31" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R31" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="S31" s="13"/>
-      <c r="T31" s="13"/>
-    </row>
-    <row r="32" spans="1:20">
+      <c r="Q31" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R31" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S31" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T31" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U31" s="14">
+        <v>1</v>
+      </c>
+      <c r="V31" s="15">
+        <v>8.39</v>
+      </c>
+      <c r="W31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -3303,7 +4111,7 @@
         <v>300537</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="E32" s="4">
         <v>-2.39</v>
@@ -3312,13 +4120,21 @@
         <v>27.34</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
+        <v>77</v>
+      </c>
+      <c r="H32" s="4">
+        <v>6.07</v>
+      </c>
+      <c r="I32" s="4">
+        <v>29.2</v>
+      </c>
+      <c r="J32" s="8">
+        <v>6.8</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="L32" s="10"/>
       <c r="M32" s="4">
         <v>7</v>
       </c>
@@ -3331,16 +4147,29 @@
       <c r="P32" s="4">
         <v>-0.11</v>
       </c>
-      <c r="Q32" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R32" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="S32" s="13"/>
-      <c r="T32" s="13"/>
-    </row>
-    <row r="33" spans="1:20">
+      <c r="Q32" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R32" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S32" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T32" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="U32" s="16">
+        <v>0</v>
+      </c>
+      <c r="V32" s="15">
+        <v>-0.21</v>
+      </c>
+      <c r="W32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -3351,7 +4180,7 @@
         <v>300546</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="E33" s="4">
         <v>3.32</v>
@@ -3360,13 +4189,21 @@
         <v>32.39</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="H33" s="4">
+        <v>-2.99</v>
+      </c>
+      <c r="I33" s="4">
+        <v>32.66</v>
+      </c>
+      <c r="J33" s="8">
+        <v>0.83</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L33" s="10"/>
       <c r="M33" s="4">
         <v>1</v>
       </c>
@@ -3376,19 +4213,32 @@
       <c r="O33" s="4">
         <v>121813070</v>
       </c>
-      <c r="P33" s="10">
+      <c r="P33" s="11">
         <v>1.6</v>
       </c>
-      <c r="Q33" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R33" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="S33" s="13"/>
-      <c r="T33" s="13"/>
-    </row>
-    <row r="34" spans="1:20">
+      <c r="Q33" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R33" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="S33" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T33" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U33" s="16">
+        <v>0</v>
+      </c>
+      <c r="V33" s="15">
+        <v>4.93</v>
+      </c>
+      <c r="W33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -3399,7 +4249,7 @@
         <v>300554</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="E34" s="4">
         <v>7.09</v>
@@ -3408,13 +4258,21 @@
         <v>26.75</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
+        <v>99</v>
+      </c>
+      <c r="H34" s="4">
+        <v>-4.22</v>
+      </c>
+      <c r="I34" s="4">
+        <v>26.63</v>
+      </c>
+      <c r="J34" s="8">
+        <v>-0.45</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L34" s="10"/>
       <c r="M34" s="4">
         <v>4</v>
       </c>
@@ -3424,19 +4282,32 @@
       <c r="O34" s="4">
         <v>5989649</v>
       </c>
-      <c r="P34" s="10">
+      <c r="P34" s="11">
         <v>1.15</v>
       </c>
-      <c r="Q34" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R34" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="S34" s="13"/>
-      <c r="T34" s="13"/>
-    </row>
-    <row r="35" spans="1:20">
+      <c r="Q34" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R34" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S34" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T34" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U34" s="16">
+        <v>0</v>
+      </c>
+      <c r="V34" s="15">
+        <v>4.08</v>
+      </c>
+      <c r="W34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -3447,7 +4318,7 @@
         <v>300581</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="E35" s="4">
         <v>0.83</v>
@@ -3456,13 +4327,21 @@
         <v>20.55</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
+        <v>101</v>
+      </c>
+      <c r="H35" s="4">
+        <v>2.04</v>
+      </c>
+      <c r="I35" s="4">
+        <v>22.32</v>
+      </c>
+      <c r="J35" s="8">
+        <v>8.61</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="L35" s="10"/>
       <c r="M35" s="4">
         <v>16</v>
       </c>
@@ -3475,16 +4354,29 @@
       <c r="P35" s="4">
         <v>-0.53</v>
       </c>
-      <c r="Q35" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R35" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="S35" s="13"/>
-      <c r="T35" s="13"/>
-    </row>
-    <row r="36" spans="1:20">
+      <c r="Q35" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R35" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S35" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T35" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="U35" s="14">
+        <v>1</v>
+      </c>
+      <c r="V35" s="15">
+        <v>5.33</v>
+      </c>
+      <c r="W35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -3495,7 +4387,7 @@
         <v>300589</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="E36" s="4">
         <v>0.98</v>
@@ -3504,13 +4396,21 @@
         <v>14.46</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
+        <v>103</v>
+      </c>
+      <c r="H36" s="4">
+        <v>-2.9</v>
+      </c>
+      <c r="I36" s="4">
+        <v>14.58</v>
+      </c>
+      <c r="J36" s="8">
+        <v>0.83</v>
+      </c>
+      <c r="K36" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="L36" s="10"/>
       <c r="M36" s="4">
         <v>6</v>
       </c>
@@ -3523,16 +4423,29 @@
       <c r="P36" s="4">
         <v>0.24</v>
       </c>
-      <c r="Q36" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R36" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="S36" s="13"/>
-      <c r="T36" s="13"/>
-    </row>
-    <row r="37" spans="1:20">
+      <c r="Q36" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R36" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S36" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T36" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U36" s="16">
+        <v>0</v>
+      </c>
+      <c r="V36" s="15">
+        <v>4.77</v>
+      </c>
+      <c r="W36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -3543,7 +4456,7 @@
         <v>300591</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="E37" s="4">
         <v>8.27</v>
@@ -3552,13 +4465,21 @@
         <v>12.7</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
+        <v>106</v>
+      </c>
+      <c r="H37" s="4">
+        <v>1.18</v>
+      </c>
+      <c r="I37" s="4">
+        <v>13.6</v>
+      </c>
+      <c r="J37" s="8">
+        <v>7.09</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="L37" s="10"/>
       <c r="M37" s="4">
         <v>11</v>
       </c>
@@ -3568,19 +4489,32 @@
       <c r="O37" s="4">
         <v>160460150</v>
       </c>
-      <c r="P37" s="10">
+      <c r="P37" s="11">
         <v>3.77</v>
       </c>
-      <c r="Q37" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R37" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="S37" s="13"/>
-      <c r="T37" s="13"/>
-    </row>
-    <row r="38" spans="1:20">
+      <c r="Q37" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R37" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="S37" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T37" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="U37" s="14">
+        <v>1</v>
+      </c>
+      <c r="V37" s="15">
+        <v>4.27</v>
+      </c>
+      <c r="W37" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -3591,7 +4525,7 @@
         <v>300600</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="E38" s="4">
         <v>1.83</v>
@@ -3600,13 +4534,21 @@
         <v>15.58</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
+        <v>103</v>
+      </c>
+      <c r="H38" s="4">
+        <v>-4.69</v>
+      </c>
+      <c r="I38" s="4">
+        <v>16.25</v>
+      </c>
+      <c r="J38" s="8">
+        <v>4.3</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="L38" s="10"/>
       <c r="M38" s="4">
         <v>8</v>
       </c>
@@ -3619,16 +4561,29 @@
       <c r="P38" s="4">
         <v>0.02</v>
       </c>
-      <c r="Q38" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R38" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="S38" s="13"/>
-      <c r="T38" s="13"/>
-    </row>
-    <row r="39" spans="1:20">
+      <c r="Q38" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R38" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S38" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T38" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U38" s="16">
+        <v>0</v>
+      </c>
+      <c r="V38" s="15">
+        <v>2.71</v>
+      </c>
+      <c r="W38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -3639,7 +4594,7 @@
         <v>300609</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="E39" s="4">
         <v>6.16</v>
@@ -3648,13 +4603,21 @@
         <v>36.7</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
+        <v>68</v>
+      </c>
+      <c r="H39" s="4">
+        <v>-4.69</v>
+      </c>
+      <c r="I39" s="4">
+        <v>36.55</v>
+      </c>
+      <c r="J39" s="8">
+        <v>-0.41</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="L39" s="10"/>
       <c r="M39" s="4">
         <v>1</v>
       </c>
@@ -3667,16 +4630,29 @@
       <c r="P39" s="4">
         <v>0.22</v>
       </c>
-      <c r="Q39" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R39" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="S39" s="13"/>
-      <c r="T39" s="13"/>
-    </row>
-    <row r="40" spans="1:20">
+      <c r="Q39" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R39" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="S39" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T39" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U39" s="16">
+        <v>0</v>
+      </c>
+      <c r="V39" s="15">
+        <v>2.64</v>
+      </c>
+      <c r="W39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -3687,7 +4663,7 @@
         <v>300645</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="E40" s="4">
         <v>1.87</v>
@@ -3696,13 +4672,21 @@
         <v>21.84</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
+        <v>68</v>
+      </c>
+      <c r="H40" s="4">
+        <v>-3.21</v>
+      </c>
+      <c r="I40" s="4">
+        <v>22.23</v>
+      </c>
+      <c r="J40" s="8">
+        <v>1.79</v>
+      </c>
+      <c r="K40" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L40" s="10"/>
       <c r="M40" s="4">
         <v>11</v>
       </c>
@@ -3715,16 +4699,29 @@
       <c r="P40" s="4">
         <v>0.3</v>
       </c>
-      <c r="Q40" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R40" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="S40" s="13"/>
-      <c r="T40" s="13"/>
-    </row>
-    <row r="41" spans="1:20">
+      <c r="Q40" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R40" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S40" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T40" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U40" s="16">
+        <v>0</v>
+      </c>
+      <c r="V40" s="15">
+        <v>3.72</v>
+      </c>
+      <c r="W40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -3735,7 +4732,7 @@
         <v>300649</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="E41" s="4">
         <v>-4.39</v>
@@ -3744,13 +4741,21 @@
         <v>21.32</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
+        <v>112</v>
+      </c>
+      <c r="H41" s="4">
+        <v>3.24</v>
+      </c>
+      <c r="I41" s="4">
+        <v>24.2</v>
+      </c>
+      <c r="J41" s="8">
+        <v>13.51</v>
+      </c>
+      <c r="K41" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="L41" s="10"/>
       <c r="M41" s="4">
         <v>8</v>
       </c>
@@ -3763,16 +4768,29 @@
       <c r="P41" s="4">
         <v>-1.23</v>
       </c>
-      <c r="Q41" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R41" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="S41" s="13"/>
-      <c r="T41" s="13"/>
-    </row>
-    <row r="42" spans="1:20">
+      <c r="Q41" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R41" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S41" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T41" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="U41" s="16">
+        <v>0</v>
+      </c>
+      <c r="V41" s="15">
+        <v>5.91</v>
+      </c>
+      <c r="W41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -3783,7 +4801,7 @@
         <v>300670</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="E42" s="4">
         <v>3.56</v>
@@ -3792,13 +4810,21 @@
         <v>8.14</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
+        <v>115</v>
+      </c>
+      <c r="H42" s="4">
+        <v>-2.95</v>
+      </c>
+      <c r="I42" s="4">
+        <v>8.07</v>
+      </c>
+      <c r="J42" s="8">
+        <v>-0.86</v>
+      </c>
+      <c r="K42" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="L42" s="10"/>
       <c r="M42" s="4">
         <v>4</v>
       </c>
@@ -3811,16 +4837,29 @@
       <c r="P42" s="4">
         <v>-0.41</v>
       </c>
-      <c r="Q42" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R42" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="S42" s="13"/>
-      <c r="T42" s="13"/>
-    </row>
-    <row r="43" spans="1:20">
+      <c r="Q42" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R42" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S42" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T42" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U42" s="16">
+        <v>0</v>
+      </c>
+      <c r="V42" s="15">
+        <v>1</v>
+      </c>
+      <c r="W42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -3831,7 +4870,7 @@
         <v>300682</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="E43" s="4">
         <v>1.34</v>
@@ -3840,13 +4879,21 @@
         <v>22.7</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
+        <v>68</v>
+      </c>
+      <c r="H43" s="4">
+        <v>-4.41</v>
+      </c>
+      <c r="I43" s="4">
+        <v>22.53</v>
+      </c>
+      <c r="J43" s="8">
+        <v>-0.75</v>
+      </c>
+      <c r="K43" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L43" s="10"/>
       <c r="M43" s="4">
         <v>18</v>
       </c>
@@ -3859,16 +4906,29 @@
       <c r="P43" s="4">
         <v>0.06</v>
       </c>
-      <c r="Q43" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R43" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="S43" s="13"/>
-      <c r="T43" s="13"/>
-    </row>
-    <row r="44" spans="1:20">
+      <c r="Q43" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R43" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S43" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T43" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U43" s="16">
+        <v>0</v>
+      </c>
+      <c r="V43" s="15">
+        <v>3.4</v>
+      </c>
+      <c r="W43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -3879,7 +4939,7 @@
         <v>300697</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="E44" s="4">
         <v>2.33</v>
@@ -3888,13 +4948,21 @@
         <v>14.94</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
+        <v>119</v>
+      </c>
+      <c r="H44" s="4">
+        <v>-2.07</v>
+      </c>
+      <c r="I44" s="4">
+        <v>15.92</v>
+      </c>
+      <c r="J44" s="8">
+        <v>6.56</v>
+      </c>
+      <c r="K44" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="L44" s="10"/>
       <c r="M44" s="4">
         <v>6</v>
       </c>
@@ -3904,19 +4972,32 @@
       <c r="O44" s="4">
         <v>-9700489</v>
       </c>
-      <c r="P44" s="10">
+      <c r="P44" s="11">
         <v>0.33</v>
       </c>
-      <c r="Q44" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R44" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="S44" s="13"/>
-      <c r="T44" s="13"/>
-    </row>
-    <row r="45" spans="1:20">
+      <c r="Q44" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R44" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S44" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T44" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="U44" s="16">
+        <v>0</v>
+      </c>
+      <c r="V44" s="15">
+        <v>1.09</v>
+      </c>
+      <c r="W44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -3927,7 +5008,7 @@
         <v>300753</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="E45" s="4">
         <v>0.09</v>
@@ -3936,13 +5017,21 @@
         <v>32.14</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="H45" s="4">
+        <v>-3.24</v>
+      </c>
+      <c r="I45" s="4">
+        <v>32.33</v>
+      </c>
+      <c r="J45" s="8">
+        <v>0.59</v>
+      </c>
+      <c r="K45" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L45" s="10"/>
       <c r="M45" s="4">
         <v>16</v>
       </c>
@@ -3955,16 +5044,29 @@
       <c r="P45" s="4">
         <v>-0.8</v>
       </c>
-      <c r="Q45" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R45" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="S45" s="13"/>
-      <c r="T45" s="13"/>
-    </row>
-    <row r="46" spans="1:20">
+      <c r="Q45" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R45" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S45" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T45" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U45" s="16">
+        <v>0</v>
+      </c>
+      <c r="V45" s="15">
+        <v>9.5</v>
+      </c>
+      <c r="W45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -3975,7 +5077,7 @@
         <v>300773</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="E46" s="4">
         <v>-0.1</v>
@@ -3984,13 +5086,21 @@
         <v>31.03</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
+        <v>123</v>
+      </c>
+      <c r="H46" s="4">
+        <v>-2.06</v>
+      </c>
+      <c r="I46" s="4">
+        <v>31.24</v>
+      </c>
+      <c r="J46" s="8">
+        <v>0.68</v>
+      </c>
+      <c r="K46" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L46" s="10"/>
       <c r="M46" s="4">
         <v>24</v>
       </c>
@@ -4003,16 +5113,29 @@
       <c r="P46" s="4">
         <v>-0.56</v>
       </c>
-      <c r="Q46" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R46" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="S46" s="13"/>
-      <c r="T46" s="13"/>
-    </row>
-    <row r="47" spans="1:20">
+      <c r="Q46" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R46" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S46" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T46" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U46" s="16">
+        <v>0</v>
+      </c>
+      <c r="V46" s="15">
+        <v>6.41</v>
+      </c>
+      <c r="W46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -4023,7 +5146,7 @@
         <v>300778</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="E47" s="4">
         <v>3.69</v>
@@ -4032,13 +5155,21 @@
         <v>14.88</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
+        <v>125</v>
+      </c>
+      <c r="H47" s="4">
+        <v>20.03</v>
+      </c>
+      <c r="I47" s="4">
+        <v>17.86</v>
+      </c>
+      <c r="J47" s="8">
+        <v>20.03</v>
+      </c>
+      <c r="K47" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="L47" s="10"/>
       <c r="M47" s="4">
         <v>1</v>
       </c>
@@ -4051,16 +5182,29 @@
       <c r="P47" s="4">
         <v>0.07</v>
       </c>
-      <c r="Q47" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R47" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="S47" s="13"/>
-      <c r="T47" s="13"/>
-    </row>
-    <row r="48" spans="1:20">
+      <c r="Q47" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R47" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S47" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T47" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="U47" s="16">
+        <v>0</v>
+      </c>
+      <c r="V47" s="15">
+        <v>3.23</v>
+      </c>
+      <c r="W47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -4071,7 +5215,7 @@
         <v>300803</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="E48" s="4">
         <v>2.97</v>
@@ -4080,13 +5224,21 @@
         <v>81.1</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
+        <v>68</v>
+      </c>
+      <c r="H48" s="4">
+        <v>-2.84</v>
+      </c>
+      <c r="I48" s="4">
+        <v>81.99</v>
+      </c>
+      <c r="J48" s="8">
+        <v>1.1</v>
+      </c>
+      <c r="K48" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="L48" s="10"/>
       <c r="M48" s="4">
         <v>8</v>
       </c>
@@ -4096,19 +5248,32 @@
       <c r="O48" s="4">
         <v>144573270</v>
       </c>
-      <c r="P48" s="10">
+      <c r="P48" s="11">
         <v>0.34</v>
       </c>
-      <c r="Q48" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R48" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="S48" s="13"/>
-      <c r="T48" s="13"/>
-    </row>
-    <row r="49" spans="1:20">
+      <c r="Q48" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R48" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S48" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T48" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U48" s="14">
+        <v>1</v>
+      </c>
+      <c r="V48" s="15">
+        <v>10.81</v>
+      </c>
+      <c r="W48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -4119,7 +5284,7 @@
         <v>300821</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="E49" s="4">
         <v>10.94</v>
@@ -4128,13 +5293,21 @@
         <v>10.04</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
+        <v>129</v>
+      </c>
+      <c r="H49" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="I49" s="4">
+        <v>10.68</v>
+      </c>
+      <c r="J49" s="8">
+        <v>6.37</v>
+      </c>
+      <c r="K49" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="L49" s="10"/>
       <c r="M49" s="4">
         <v>1</v>
       </c>
@@ -4144,19 +5317,32 @@
       <c r="O49" s="4">
         <v>131488200</v>
       </c>
-      <c r="P49" s="10">
+      <c r="P49" s="11">
         <v>0.53</v>
       </c>
-      <c r="Q49" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R49" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="S49" s="13"/>
-      <c r="T49" s="13"/>
-    </row>
-    <row r="50" spans="1:20">
+      <c r="Q49" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R49" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="S49" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T49" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="U49" s="14">
+        <v>1</v>
+      </c>
+      <c r="V49" s="15">
+        <v>10.18</v>
+      </c>
+      <c r="W49" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -4167,7 +5353,7 @@
         <v>300847</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="E50" s="4">
         <v>4.03</v>
@@ -4176,13 +5362,21 @@
         <v>21.95</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
+        <v>132</v>
+      </c>
+      <c r="H50" s="4">
+        <v>-5.51</v>
+      </c>
+      <c r="I50" s="4">
+        <v>22.17</v>
+      </c>
+      <c r="J50" s="8">
+        <v>1</v>
+      </c>
+      <c r="K50" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="L50" s="10"/>
       <c r="M50" s="4">
         <v>2</v>
       </c>
@@ -4195,16 +5389,29 @@
       <c r="P50" s="4">
         <v>-2.06</v>
       </c>
-      <c r="Q50" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R50" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="S50" s="13"/>
-      <c r="T50" s="13"/>
-    </row>
-    <row r="51" spans="1:20">
+      <c r="Q50" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R50" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S50" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T50" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U50" s="16">
+        <v>0</v>
+      </c>
+      <c r="V50" s="15">
+        <v>2.04</v>
+      </c>
+      <c r="W50" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -4215,22 +5422,30 @@
         <v>300858</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E51" s="7">
+        <v>134</v>
+      </c>
+      <c r="E51" s="6">
         <v>0</v>
       </c>
       <c r="F51" s="4">
         <v>18.48</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
+        <v>135</v>
+      </c>
+      <c r="H51" s="4">
+        <v>-2.76</v>
+      </c>
+      <c r="I51" s="4">
+        <v>18.74</v>
+      </c>
+      <c r="J51" s="8">
+        <v>1.41</v>
+      </c>
+      <c r="K51" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="L51" s="10"/>
       <c r="M51" s="4">
         <v>2</v>
       </c>
@@ -4243,16 +5458,29 @@
       <c r="P51" s="4">
         <v>-0.43</v>
       </c>
-      <c r="Q51" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R51" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="S51" s="13"/>
-      <c r="T51" s="13"/>
-    </row>
-    <row r="52" spans="1:20">
+      <c r="Q51" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R51" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S51" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T51" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U51" s="16">
+        <v>0</v>
+      </c>
+      <c r="V51" s="15">
+        <v>0.29</v>
+      </c>
+      <c r="W51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -4263,7 +5491,7 @@
         <v>300872</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="E52" s="4">
         <v>14.57</v>
@@ -4272,13 +5500,21 @@
         <v>27.05</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
+        <v>138</v>
+      </c>
+      <c r="H52" s="4">
+        <v>-4.4</v>
+      </c>
+      <c r="I52" s="4">
+        <v>26.98</v>
+      </c>
+      <c r="J52" s="8">
+        <v>-0.26</v>
+      </c>
+      <c r="K52" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L52" s="10"/>
       <c r="M52" s="4">
         <v>17</v>
       </c>
@@ -4288,19 +5524,32 @@
       <c r="O52" s="4">
         <v>490918250</v>
       </c>
-      <c r="P52" s="10">
+      <c r="P52" s="11">
         <v>2.02</v>
       </c>
-      <c r="Q52" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="R52" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="S52" s="13"/>
-      <c r="T52" s="13"/>
-    </row>
-    <row r="53" spans="1:20">
+      <c r="Q52" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="R52" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="S52" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T52" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U52" s="14">
+        <v>1</v>
+      </c>
+      <c r="V52" s="15">
+        <v>3.79</v>
+      </c>
+      <c r="W52" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -4311,7 +5560,7 @@
         <v>300875</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="E53" s="4">
         <v>-2.06</v>
@@ -4320,13 +5569,21 @@
         <v>44.32</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
+        <v>92</v>
+      </c>
+      <c r="H53" s="4">
+        <v>6.05</v>
+      </c>
+      <c r="I53" s="4">
+        <v>47.33</v>
+      </c>
+      <c r="J53" s="8">
+        <v>6.79</v>
+      </c>
+      <c r="K53" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="L53" s="10"/>
       <c r="M53" s="4">
         <v>7</v>
       </c>
@@ -4339,16 +5596,29 @@
       <c r="P53" s="4">
         <v>-0.55</v>
       </c>
-      <c r="Q53" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R53" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="S53" s="13"/>
-      <c r="T53" s="13"/>
-    </row>
-    <row r="54" spans="1:20">
+      <c r="Q53" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R53" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S53" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T53" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="U53" s="16">
+        <v>0</v>
+      </c>
+      <c r="V53" s="15">
+        <v>5.29</v>
+      </c>
+      <c r="W53" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -4359,7 +5629,7 @@
         <v>300897</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="E54" s="4">
         <v>-6.09</v>
@@ -4368,13 +5638,21 @@
         <v>25.73</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="9"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
+        <v>87</v>
+      </c>
+      <c r="H54" s="4">
+        <v>-1.44</v>
+      </c>
+      <c r="I54" s="4">
+        <v>25.95</v>
+      </c>
+      <c r="J54" s="8">
+        <v>0.86</v>
+      </c>
+      <c r="K54" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="L54" s="10"/>
       <c r="M54" s="4">
         <v>1</v>
       </c>
@@ -4387,16 +5665,29 @@
       <c r="P54" s="4">
         <v>-0.11</v>
       </c>
-      <c r="Q54" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R54" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="S54" s="13"/>
-      <c r="T54" s="13"/>
-    </row>
-    <row r="55" spans="1:20">
+      <c r="Q54" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R54" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S54" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T54" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U54" s="16">
+        <v>0</v>
+      </c>
+      <c r="V54" s="15">
+        <v>0.67</v>
+      </c>
+      <c r="W54" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -4407,7 +5698,7 @@
         <v>300903</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="E55" s="4">
         <v>6.27</v>
@@ -4416,13 +5707,21 @@
         <v>11.19</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="9"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="6"/>
+        <v>143</v>
+      </c>
+      <c r="H55" s="4">
+        <v>-0.8</v>
+      </c>
+      <c r="I55" s="4">
+        <v>11.75</v>
+      </c>
+      <c r="J55" s="8">
+        <v>5</v>
+      </c>
+      <c r="K55" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="L55" s="10"/>
       <c r="M55" s="4">
         <v>13</v>
       </c>
@@ -4432,19 +5731,32 @@
       <c r="O55" s="4">
         <v>51770544</v>
       </c>
-      <c r="P55" s="10">
+      <c r="P55" s="11">
         <v>0.39</v>
       </c>
-      <c r="Q55" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R55" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="S55" s="13"/>
-      <c r="T55" s="13"/>
-    </row>
-    <row r="56" spans="1:20">
+      <c r="Q55" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R55" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S55" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T55" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="U55" s="16">
+        <v>0</v>
+      </c>
+      <c r="V55" s="15">
+        <v>3.9</v>
+      </c>
+      <c r="W55" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -4455,7 +5767,7 @@
         <v>300947</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="E56" s="4">
         <v>3.14</v>
@@ -4464,13 +5776,21 @@
         <v>25.98</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="9"/>
-      <c r="K56" s="6"/>
-      <c r="L56" s="6"/>
+        <v>146</v>
+      </c>
+      <c r="H56" s="4">
+        <v>-4.7</v>
+      </c>
+      <c r="I56" s="4">
+        <v>26.02</v>
+      </c>
+      <c r="J56" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="K56" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="L56" s="10"/>
       <c r="M56" s="4">
         <v>1</v>
       </c>
@@ -4483,16 +5803,29 @@
       <c r="P56" s="4">
         <v>-0.65</v>
       </c>
-      <c r="Q56" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R56" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="S56" s="13"/>
-      <c r="T56" s="13"/>
-    </row>
-    <row r="57" spans="1:20">
+      <c r="Q56" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R56" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S56" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T56" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U56" s="16">
+        <v>0</v>
+      </c>
+      <c r="V56" s="15">
+        <v>2.99</v>
+      </c>
+      <c r="W56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -4503,7 +5836,7 @@
         <v>300971</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="E57" s="4">
         <v>-2.6</v>
@@ -4512,13 +5845,21 @@
         <v>23.62</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="9"/>
-      <c r="K57" s="6"/>
-      <c r="L57" s="6"/>
+        <v>149</v>
+      </c>
+      <c r="H57" s="4">
+        <v>-3.6</v>
+      </c>
+      <c r="I57" s="4">
+        <v>24.04</v>
+      </c>
+      <c r="J57" s="8">
+        <v>1.78</v>
+      </c>
+      <c r="K57" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="L57" s="10"/>
       <c r="M57" s="4">
         <v>6</v>
       </c>
@@ -4531,16 +5872,29 @@
       <c r="P57" s="4">
         <v>-0.89</v>
       </c>
-      <c r="Q57" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R57" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="S57" s="13"/>
-      <c r="T57" s="13"/>
-    </row>
-    <row r="58" spans="1:20">
+      <c r="Q57" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R57" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S57" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T57" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U57" s="16">
+        <v>0</v>
+      </c>
+      <c r="V57" s="15">
+        <v>5.75</v>
+      </c>
+      <c r="W57" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -4551,7 +5905,7 @@
         <v>300982</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="E58" s="4">
         <v>5.56</v>
@@ -4560,13 +5914,21 @@
         <v>22.79</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="9"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="6"/>
+        <v>152</v>
+      </c>
+      <c r="H58" s="4">
+        <v>3.95</v>
+      </c>
+      <c r="I58" s="4">
+        <v>24.87</v>
+      </c>
+      <c r="J58" s="8">
+        <v>9.13</v>
+      </c>
+      <c r="K58" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="L58" s="10"/>
       <c r="M58" s="4">
         <v>1</v>
       </c>
@@ -4579,16 +5941,29 @@
       <c r="P58" s="4">
         <v>-1.03</v>
       </c>
-      <c r="Q58" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R58" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="S58" s="13"/>
-      <c r="T58" s="13"/>
-    </row>
-    <row r="59" spans="1:20">
+      <c r="Q58" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R58" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S58" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T58" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="U58" s="16">
+        <v>0</v>
+      </c>
+      <c r="V58" s="15">
+        <v>5.54</v>
+      </c>
+      <c r="W58" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -4599,7 +5974,7 @@
         <v>300991</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="E59" s="4">
         <v>-0.92</v>
@@ -4608,13 +5983,21 @@
         <v>31.29</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="9"/>
-      <c r="K59" s="6"/>
-      <c r="L59" s="6"/>
+        <v>155</v>
+      </c>
+      <c r="H59" s="4">
+        <v>8.12</v>
+      </c>
+      <c r="I59" s="4">
+        <v>35.5</v>
+      </c>
+      <c r="J59" s="8">
+        <v>13.45</v>
+      </c>
+      <c r="K59" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="L59" s="10"/>
       <c r="M59" s="4">
         <v>7</v>
       </c>
@@ -4627,16 +6010,29 @@
       <c r="P59" s="4">
         <v>0.14</v>
       </c>
-      <c r="Q59" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R59" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="S59" s="13"/>
-      <c r="T59" s="13"/>
-    </row>
-    <row r="60" spans="1:20">
+      <c r="Q59" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R59" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S59" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T59" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="U59" s="16">
+        <v>0</v>
+      </c>
+      <c r="V59" s="15">
+        <v>4.69</v>
+      </c>
+      <c r="W59" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -4647,7 +6043,7 @@
         <v>300993</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="E60" s="4">
         <v>-4.22</v>
@@ -4656,13 +6052,21 @@
         <v>15.66</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="9"/>
-      <c r="K60" s="6"/>
-      <c r="L60" s="6"/>
+        <v>158</v>
+      </c>
+      <c r="H60" s="4">
+        <v>-3.13</v>
+      </c>
+      <c r="I60" s="4">
+        <v>16.19</v>
+      </c>
+      <c r="J60" s="8">
+        <v>3.38</v>
+      </c>
+      <c r="K60" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L60" s="10"/>
       <c r="M60" s="4">
         <v>7</v>
       </c>
@@ -4675,16 +6079,29 @@
       <c r="P60" s="4">
         <v>-1.58</v>
       </c>
-      <c r="Q60" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R60" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="S60" s="13"/>
-      <c r="T60" s="13"/>
-    </row>
-    <row r="61" spans="1:20">
+      <c r="Q60" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R60" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S60" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T60" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U60" s="16">
+        <v>0</v>
+      </c>
+      <c r="V60" s="15">
+        <v>-0.39</v>
+      </c>
+      <c r="W60" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -4695,7 +6112,7 @@
         <v>301007</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="E61" s="4">
         <v>0.86</v>
@@ -4704,13 +6121,21 @@
         <v>30.64</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="9"/>
-      <c r="K61" s="6"/>
-      <c r="L61" s="6"/>
+        <v>161</v>
+      </c>
+      <c r="H61" s="4">
+        <v>-1.5</v>
+      </c>
+      <c r="I61" s="4">
+        <v>32.49</v>
+      </c>
+      <c r="J61" s="8">
+        <v>6.04</v>
+      </c>
+      <c r="K61" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="L61" s="10"/>
       <c r="M61" s="4">
         <v>5</v>
       </c>
@@ -4723,16 +6148,29 @@
       <c r="P61" s="4">
         <v>-0.27</v>
       </c>
-      <c r="Q61" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R61" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="S61" s="13"/>
-      <c r="T61" s="13"/>
-    </row>
-    <row r="62" spans="1:20">
+      <c r="Q61" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R61" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S61" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T61" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="U61" s="16">
+        <v>0</v>
+      </c>
+      <c r="V61" s="15">
+        <v>0.35</v>
+      </c>
+      <c r="W61" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -4743,7 +6181,7 @@
         <v>301024</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="E62" s="4">
         <v>5.51</v>
@@ -4752,13 +6190,21 @@
         <v>60.75</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="9"/>
-      <c r="K62" s="6"/>
-      <c r="L62" s="6"/>
+        <v>125</v>
+      </c>
+      <c r="H62" s="4">
+        <v>-5.4</v>
+      </c>
+      <c r="I62" s="4">
+        <v>60.97</v>
+      </c>
+      <c r="J62" s="8">
+        <v>0.36</v>
+      </c>
+      <c r="K62" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L62" s="10"/>
       <c r="M62" s="4">
         <v>6</v>
       </c>
@@ -4768,19 +6214,32 @@
       <c r="O62" s="4">
         <v>61755107</v>
       </c>
-      <c r="P62" s="10">
+      <c r="P62" s="11">
         <v>0.62</v>
       </c>
-      <c r="Q62" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R62" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="S62" s="13"/>
-      <c r="T62" s="13"/>
-    </row>
-    <row r="63" spans="1:20">
+      <c r="Q62" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R62" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S62" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T62" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U62" s="16">
+        <v>0</v>
+      </c>
+      <c r="V62" s="15">
+        <v>6.41</v>
+      </c>
+      <c r="W62" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -4791,7 +6250,7 @@
         <v>301132</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="E63" s="4">
         <v>4.33</v>
@@ -4800,13 +6259,21 @@
         <v>36.83</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="9"/>
-      <c r="K63" s="6"/>
-      <c r="L63" s="6"/>
+        <v>143</v>
+      </c>
+      <c r="H63" s="4">
+        <v>-3.23</v>
+      </c>
+      <c r="I63" s="4">
+        <v>37.36</v>
+      </c>
+      <c r="J63" s="8">
+        <v>1.44</v>
+      </c>
+      <c r="K63" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="L63" s="10"/>
       <c r="M63" s="4">
         <v>11</v>
       </c>
@@ -4816,19 +6283,32 @@
       <c r="O63" s="4">
         <v>3027830</v>
       </c>
-      <c r="P63" s="10">
+      <c r="P63" s="11">
         <v>0.55</v>
       </c>
-      <c r="Q63" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R63" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="S63" s="13"/>
-      <c r="T63" s="13"/>
-    </row>
-    <row r="64" spans="1:20">
+      <c r="Q63" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R63" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S63" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T63" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U63" s="16">
+        <v>0</v>
+      </c>
+      <c r="V63" s="15">
+        <v>7.19</v>
+      </c>
+      <c r="W63" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -4839,7 +6319,7 @@
         <v>301141</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
       <c r="E64" s="4">
         <v>1.39</v>
@@ -4848,13 +6328,21 @@
         <v>65.63</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="9"/>
-      <c r="K64" s="6"/>
-      <c r="L64" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="H64" s="4">
+        <v>-4.75</v>
+      </c>
+      <c r="I64" s="4">
+        <v>65.5</v>
+      </c>
+      <c r="J64" s="8">
+        <v>-0.2</v>
+      </c>
+      <c r="K64" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="L64" s="10"/>
       <c r="M64" s="4">
         <v>8</v>
       </c>
@@ -4867,16 +6355,29 @@
       <c r="P64" s="4">
         <v>-1.65</v>
       </c>
-      <c r="Q64" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R64" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="S64" s="13"/>
-      <c r="T64" s="13"/>
-    </row>
-    <row r="65" spans="1:20">
+      <c r="Q64" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R64" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S64" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T64" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U64" s="16">
+        <v>0</v>
+      </c>
+      <c r="V64" s="15">
+        <v>2.83</v>
+      </c>
+      <c r="W64" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -4887,7 +6388,7 @@
         <v>301150</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
       <c r="E65" s="4">
         <v>5.19</v>
@@ -4896,13 +6397,21 @@
         <v>24.51</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="9"/>
-      <c r="K65" s="6"/>
-      <c r="L65" s="6"/>
+        <v>167</v>
+      </c>
+      <c r="H65" s="4">
+        <v>4.94</v>
+      </c>
+      <c r="I65" s="4">
+        <v>26.8</v>
+      </c>
+      <c r="J65" s="8">
+        <v>9.34</v>
+      </c>
+      <c r="K65" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L65" s="10"/>
       <c r="M65" s="4">
         <v>4</v>
       </c>
@@ -4912,19 +6421,32 @@
       <c r="O65" s="4">
         <v>-20476105</v>
       </c>
-      <c r="P65" s="10">
+      <c r="P65" s="11">
         <v>0.34</v>
       </c>
-      <c r="Q65" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R65" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="S65" s="13"/>
-      <c r="T65" s="13"/>
-    </row>
-    <row r="66" spans="1:20">
+      <c r="Q65" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R65" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S65" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T65" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="U65" s="16">
+        <v>0</v>
+      </c>
+      <c r="V65" s="15">
+        <v>2.76</v>
+      </c>
+      <c r="W65" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -4935,7 +6457,7 @@
         <v>301176</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>129</v>
+        <v>168</v>
       </c>
       <c r="E66" s="4">
         <v>19.99</v>
@@ -4944,13 +6466,21 @@
         <v>37.93</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="9"/>
-      <c r="K66" s="6"/>
-      <c r="L66" s="6"/>
+        <v>143</v>
+      </c>
+      <c r="H66" s="4">
+        <v>4.03</v>
+      </c>
+      <c r="I66" s="4">
+        <v>41.6</v>
+      </c>
+      <c r="J66" s="8">
+        <v>9.68</v>
+      </c>
+      <c r="K66" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="L66" s="10"/>
       <c r="M66" s="4">
         <v>13</v>
       </c>
@@ -4960,19 +6490,32 @@
       <c r="O66" s="4">
         <v>-4281964</v>
       </c>
-      <c r="P66" s="10">
+      <c r="P66" s="11">
         <v>4.81</v>
       </c>
-      <c r="Q66" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="R66" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="S66" s="13"/>
-      <c r="T66" s="13"/>
-    </row>
-    <row r="67" spans="1:20">
+      <c r="Q66" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="R66" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="S66" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="T66" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="U66" s="14">
+        <v>1</v>
+      </c>
+      <c r="V66" s="15">
+        <v>9.98</v>
+      </c>
+      <c r="W66" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -4983,7 +6526,7 @@
         <v>301178</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>130</v>
+        <v>169</v>
       </c>
       <c r="E67" s="4">
         <v>5.43</v>
@@ -4992,13 +6535,21 @@
         <v>60</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="9"/>
-      <c r="K67" s="6"/>
-      <c r="L67" s="6"/>
+        <v>68</v>
+      </c>
+      <c r="H67" s="4">
+        <v>-1.87</v>
+      </c>
+      <c r="I67" s="4">
+        <v>61.47</v>
+      </c>
+      <c r="J67" s="8">
+        <v>2.45</v>
+      </c>
+      <c r="K67" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="L67" s="10"/>
       <c r="M67" s="4">
         <v>2</v>
       </c>
@@ -5011,16 +6562,29 @@
       <c r="P67" s="4">
         <v>-0.77</v>
       </c>
-      <c r="Q67" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R67" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="S67" s="13"/>
-      <c r="T67" s="13"/>
-    </row>
-    <row r="68" spans="1:20">
+      <c r="Q67" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R67" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S67" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T67" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U67" s="16">
+        <v>0</v>
+      </c>
+      <c r="V67" s="15">
+        <v>6.56</v>
+      </c>
+      <c r="W67" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -5031,7 +6595,7 @@
         <v>301197</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="E68" s="4">
         <v>4.19</v>
@@ -5040,13 +6604,21 @@
         <v>23.6</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="9"/>
-      <c r="K68" s="6"/>
-      <c r="L68" s="6"/>
+        <v>68</v>
+      </c>
+      <c r="H68" s="4">
+        <v>2.03</v>
+      </c>
+      <c r="I68" s="4">
+        <v>24.58</v>
+      </c>
+      <c r="J68" s="8">
+        <v>4.15</v>
+      </c>
+      <c r="K68" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="L68" s="10"/>
       <c r="M68" s="4">
         <v>1</v>
       </c>
@@ -5056,19 +6628,32 @@
       <c r="O68" s="4">
         <v>-10539176</v>
       </c>
-      <c r="P68" s="10">
+      <c r="P68" s="11">
         <v>0.71</v>
       </c>
-      <c r="Q68" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R68" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="S68" s="13"/>
-      <c r="T68" s="13"/>
-    </row>
-    <row r="69" spans="1:20">
+      <c r="Q68" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R68" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="S68" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T68" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U68" s="16">
+        <v>0</v>
+      </c>
+      <c r="V68" s="15">
+        <v>0.35</v>
+      </c>
+      <c r="W68" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -5079,7 +6664,7 @@
         <v>301205</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="E69" s="4">
         <v>3.1</v>
@@ -5088,13 +6673,21 @@
         <v>97.9</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="9"/>
-      <c r="K69" s="6"/>
-      <c r="L69" s="6"/>
+        <v>174</v>
+      </c>
+      <c r="H69" s="4">
+        <v>-5.22</v>
+      </c>
+      <c r="I69" s="4">
+        <v>98.6</v>
+      </c>
+      <c r="J69" s="8">
+        <v>0.72</v>
+      </c>
+      <c r="K69" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="L69" s="10"/>
       <c r="M69" s="4">
         <v>1</v>
       </c>
@@ -5104,19 +6697,32 @@
       <c r="O69" s="4">
         <v>31756476</v>
       </c>
-      <c r="P69" s="10">
+      <c r="P69" s="11">
         <v>0.75</v>
       </c>
-      <c r="Q69" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R69" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="S69" s="13"/>
-      <c r="T69" s="13"/>
-    </row>
-    <row r="70" spans="1:20">
+      <c r="Q69" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R69" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="S69" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T69" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U69" s="16">
+        <v>0</v>
+      </c>
+      <c r="V69" s="15">
+        <v>2</v>
+      </c>
+      <c r="W69" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -5127,7 +6733,7 @@
         <v>301217</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="E70" s="4">
         <v>12.91</v>
@@ -5136,13 +6742,21 @@
         <v>16.88</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="9"/>
-      <c r="K70" s="6"/>
-      <c r="L70" s="6"/>
+        <v>119</v>
+      </c>
+      <c r="H70" s="4">
+        <v>20.02</v>
+      </c>
+      <c r="I70" s="4">
+        <v>20.26</v>
+      </c>
+      <c r="J70" s="8">
+        <v>20.02</v>
+      </c>
+      <c r="K70" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="L70" s="10"/>
       <c r="M70" s="4">
         <v>2</v>
       </c>
@@ -5152,19 +6766,32 @@
       <c r="O70" s="4">
         <v>193438137</v>
       </c>
-      <c r="P70" s="10">
+      <c r="P70" s="11">
         <v>0.79</v>
       </c>
-      <c r="Q70" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R70" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="S70" s="13"/>
-      <c r="T70" s="13"/>
-    </row>
-    <row r="71" spans="1:18">
+      <c r="Q70" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R70" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="S70" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="T70" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="U70" s="16">
+        <v>0</v>
+      </c>
+      <c r="V70" s="15">
+        <v>3.41</v>
+      </c>
+      <c r="W70" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -5175,7 +6802,7 @@
         <v>301306</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>135</v>
+        <v>178</v>
       </c>
       <c r="E71" s="4">
         <v>-4.89</v>
@@ -5184,13 +6811,21 @@
         <v>56.02</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="9"/>
-      <c r="K71" s="6"/>
-      <c r="L71" s="6"/>
+        <v>179</v>
+      </c>
+      <c r="H71" s="4">
+        <v>-5.84</v>
+      </c>
+      <c r="I71" s="4">
+        <v>55.16</v>
+      </c>
+      <c r="J71" s="8">
+        <v>-1.54</v>
+      </c>
+      <c r="K71" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L71" s="10"/>
       <c r="M71" s="4">
         <v>3</v>
       </c>
@@ -5203,14 +6838,29 @@
       <c r="P71" s="4">
         <v>-2.75</v>
       </c>
-      <c r="Q71" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R71" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18">
+      <c r="Q71" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R71" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S71" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T71" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U71" s="16">
+        <v>0</v>
+      </c>
+      <c r="V71" s="15">
+        <v>7.72</v>
+      </c>
+      <c r="W71" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -5221,7 +6871,7 @@
         <v>301311</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>137</v>
+        <v>180</v>
       </c>
       <c r="E72" s="4">
         <v>-1.45</v>
@@ -5230,13 +6880,21 @@
         <v>21.76</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="9"/>
-      <c r="K72" s="6"/>
-      <c r="L72" s="6"/>
+        <v>181</v>
+      </c>
+      <c r="H72" s="4">
+        <v>-3.58</v>
+      </c>
+      <c r="I72" s="4">
+        <v>21.72</v>
+      </c>
+      <c r="J72" s="8">
+        <v>-0.18</v>
+      </c>
+      <c r="K72" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="L72" s="10"/>
       <c r="M72" s="4">
         <v>2</v>
       </c>
@@ -5249,14 +6907,29 @@
       <c r="P72" s="4">
         <v>-0.01</v>
       </c>
-      <c r="Q72" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R72" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18">
+      <c r="Q72" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R72" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S72" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T72" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U72" s="16">
+        <v>0</v>
+      </c>
+      <c r="V72" s="15">
+        <v>1.88</v>
+      </c>
+      <c r="W72" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -5267,7 +6940,7 @@
         <v>301312</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>139</v>
+        <v>182</v>
       </c>
       <c r="E73" s="4">
         <v>1.81</v>
@@ -5276,13 +6949,21 @@
         <v>43.39</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="9"/>
-      <c r="K73" s="6"/>
-      <c r="L73" s="6"/>
+        <v>183</v>
+      </c>
+      <c r="H73" s="4">
+        <v>-5.25</v>
+      </c>
+      <c r="I73" s="4">
+        <v>43</v>
+      </c>
+      <c r="J73" s="8">
+        <v>-0.9</v>
+      </c>
+      <c r="K73" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="L73" s="10"/>
       <c r="M73" s="4">
         <v>8</v>
       </c>
@@ -5295,14 +6976,29 @@
       <c r="P73" s="4">
         <v>0.14</v>
       </c>
-      <c r="Q73" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R73" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18">
+      <c r="Q73" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R73" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S73" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T73" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U73" s="16">
+        <v>0</v>
+      </c>
+      <c r="V73" s="15">
+        <v>-0.51</v>
+      </c>
+      <c r="W73" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -5313,7 +7009,7 @@
         <v>301345</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>141</v>
+        <v>185</v>
       </c>
       <c r="E74" s="4">
         <v>0.5</v>
@@ -5322,13 +7018,21 @@
         <v>136.67</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="9"/>
-      <c r="K74" s="6"/>
-      <c r="L74" s="6"/>
+        <v>186</v>
+      </c>
+      <c r="H74" s="4">
+        <v>3.29</v>
+      </c>
+      <c r="I74" s="4">
+        <v>143</v>
+      </c>
+      <c r="J74" s="8">
+        <v>4.63</v>
+      </c>
+      <c r="K74" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="L74" s="10"/>
       <c r="M74" s="4">
         <v>6</v>
       </c>
@@ -5341,14 +7045,29 @@
       <c r="P74" s="4">
         <v>-1.61</v>
       </c>
-      <c r="Q74" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R74" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18">
+      <c r="Q74" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R74" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S74" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T74" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U74" s="14">
+        <v>1</v>
+      </c>
+      <c r="V74" s="15">
+        <v>4.19</v>
+      </c>
+      <c r="W74" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -5359,7 +7078,7 @@
         <v>301357</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="E75" s="4">
         <v>1.04</v>
@@ -5368,13 +7087,21 @@
         <v>84.87</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="9"/>
-      <c r="K75" s="6"/>
-      <c r="L75" s="6"/>
+        <v>92</v>
+      </c>
+      <c r="H75" s="4">
+        <v>-2.34</v>
+      </c>
+      <c r="I75" s="4">
+        <v>89.4</v>
+      </c>
+      <c r="J75" s="8">
+        <v>5.34</v>
+      </c>
+      <c r="K75" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="L75" s="10"/>
       <c r="M75" s="4">
         <v>4</v>
       </c>
@@ -5387,14 +7114,29 @@
       <c r="P75" s="4">
         <v>-0.78</v>
       </c>
-      <c r="Q75" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R75" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18">
+      <c r="Q75" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R75" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S75" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T75" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="U75" s="16">
+        <v>0</v>
+      </c>
+      <c r="V75" s="15">
+        <v>4.25</v>
+      </c>
+      <c r="W75" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -5405,7 +7147,7 @@
         <v>301377</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>144</v>
+        <v>189</v>
       </c>
       <c r="E76" s="4">
         <v>3.76</v>
@@ -5414,13 +7156,21 @@
         <v>36.11</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="9"/>
-      <c r="K76" s="6"/>
-      <c r="L76" s="6"/>
+        <v>190</v>
+      </c>
+      <c r="H76" s="4">
+        <v>-0.58</v>
+      </c>
+      <c r="I76" s="4">
+        <v>36.56</v>
+      </c>
+      <c r="J76" s="8">
+        <v>1.25</v>
+      </c>
+      <c r="K76" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="L76" s="10"/>
       <c r="M76" s="4">
         <v>1</v>
       </c>
@@ -5433,14 +7183,29 @@
       <c r="P76" s="4">
         <v>-0.16</v>
       </c>
-      <c r="Q76" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R76" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18">
+      <c r="Q76" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R76" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S76" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T76" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U76" s="16">
+        <v>0</v>
+      </c>
+      <c r="V76" s="15">
+        <v>1.82</v>
+      </c>
+      <c r="W76" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -5451,7 +7216,7 @@
         <v>301388</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>146</v>
+        <v>191</v>
       </c>
       <c r="E77" s="4">
         <v>20.01</v>
@@ -5460,13 +7225,21 @@
         <v>38.09</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H77" s="6"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="9"/>
-      <c r="K77" s="6"/>
-      <c r="L77" s="6"/>
+        <v>115</v>
+      </c>
+      <c r="H77" s="4">
+        <v>4.96</v>
+      </c>
+      <c r="I77" s="4">
+        <v>43.84</v>
+      </c>
+      <c r="J77" s="8">
+        <v>15.1</v>
+      </c>
+      <c r="K77" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L77" s="10"/>
       <c r="M77" s="4">
         <v>2</v>
       </c>
@@ -5476,17 +7249,32 @@
       <c r="O77" s="4">
         <v>-95651497</v>
       </c>
-      <c r="P77" s="10">
+      <c r="P77" s="11">
         <v>3.29</v>
       </c>
-      <c r="Q77" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="R77" s="14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18">
+      <c r="Q77" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="R77" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="S77" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="T77" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="U77" s="14">
+        <v>1</v>
+      </c>
+      <c r="V77" s="15">
+        <v>11.2</v>
+      </c>
+      <c r="W77" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -5497,7 +7285,7 @@
         <v>301389</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>147</v>
+        <v>192</v>
       </c>
       <c r="E78" s="4">
         <v>3.86</v>
@@ -5506,13 +7294,21 @@
         <v>33.66</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="H78" s="6"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="9"/>
-      <c r="K78" s="6"/>
-      <c r="L78" s="6"/>
+        <v>155</v>
+      </c>
+      <c r="H78" s="4">
+        <v>12.92</v>
+      </c>
+      <c r="I78" s="4">
+        <v>39.99</v>
+      </c>
+      <c r="J78" s="8">
+        <v>18.81</v>
+      </c>
+      <c r="K78" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="L78" s="10"/>
       <c r="M78" s="4">
         <v>1</v>
       </c>
@@ -5525,14 +7321,29 @@
       <c r="P78" s="4">
         <v>-1.02</v>
       </c>
-      <c r="Q78" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R78" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18">
+      <c r="Q78" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R78" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S78" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T78" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="U78" s="14">
+        <v>1</v>
+      </c>
+      <c r="V78" s="15">
+        <v>7.65</v>
+      </c>
+      <c r="W78" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -5543,7 +7354,7 @@
         <v>301408</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="E79" s="4">
         <v>-1.97</v>
@@ -5552,13 +7363,21 @@
         <v>14.42</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="9"/>
-      <c r="K79" s="6"/>
-      <c r="L79" s="6"/>
+        <v>195</v>
+      </c>
+      <c r="H79" s="4">
+        <v>-1.8</v>
+      </c>
+      <c r="I79" s="4">
+        <v>14.68</v>
+      </c>
+      <c r="J79" s="8">
+        <v>1.8</v>
+      </c>
+      <c r="K79" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="L79" s="10"/>
       <c r="M79" s="4">
         <v>6</v>
       </c>
@@ -5571,14 +7390,29 @@
       <c r="P79" s="4">
         <v>-0.97</v>
       </c>
-      <c r="Q79" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R79" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18">
+      <c r="Q79" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R79" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S79" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T79" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U79" s="16">
+        <v>0</v>
+      </c>
+      <c r="V79" s="15">
+        <v>4.05</v>
+      </c>
+      <c r="W79" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -5589,7 +7423,7 @@
         <v>301421</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>150</v>
+        <v>196</v>
       </c>
       <c r="E80" s="4">
         <v>-0.76</v>
@@ -5598,13 +7432,21 @@
         <v>71.89</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="9"/>
-      <c r="K80" s="6"/>
-      <c r="L80" s="6"/>
+        <v>197</v>
+      </c>
+      <c r="H80" s="4">
+        <v>-0.82</v>
+      </c>
+      <c r="I80" s="4">
+        <v>72.98</v>
+      </c>
+      <c r="J80" s="8">
+        <v>1.52</v>
+      </c>
+      <c r="K80" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="L80" s="10"/>
       <c r="M80" s="4">
         <v>12</v>
       </c>
@@ -5617,14 +7459,29 @@
       <c r="P80" s="4">
         <v>-0.75</v>
       </c>
-      <c r="Q80" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R80" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18">
+      <c r="Q80" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R80" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S80" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T80" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U80" s="16">
+        <v>0</v>
+      </c>
+      <c r="V80" s="15">
+        <v>3.45</v>
+      </c>
+      <c r="W80" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -5635,7 +7492,7 @@
         <v>301511</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>152</v>
+        <v>198</v>
       </c>
       <c r="E81" s="4">
         <v>7.02</v>
@@ -5644,13 +7501,21 @@
         <v>26.99</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="H81" s="6"/>
-      <c r="I81" s="6"/>
-      <c r="J81" s="9"/>
-      <c r="K81" s="6"/>
-      <c r="L81" s="6"/>
+        <v>167</v>
+      </c>
+      <c r="H81" s="4">
+        <v>-4.59</v>
+      </c>
+      <c r="I81" s="4">
+        <v>27.54</v>
+      </c>
+      <c r="J81" s="8">
+        <v>2.04</v>
+      </c>
+      <c r="K81" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="L81" s="10"/>
       <c r="M81" s="4">
         <v>11</v>
       </c>
@@ -5660,17 +7525,32 @@
       <c r="O81" s="4">
         <v>34786640</v>
       </c>
-      <c r="P81" s="10">
+      <c r="P81" s="11">
         <v>1.26</v>
       </c>
-      <c r="Q81" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R81" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18">
+      <c r="Q81" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R81" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S81" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T81" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U81" s="16">
+        <v>0</v>
+      </c>
+      <c r="V81" s="15">
+        <v>-0.25</v>
+      </c>
+      <c r="W81" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -5681,7 +7561,7 @@
         <v>301526</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>153</v>
+        <v>200</v>
       </c>
       <c r="E82" s="4">
         <v>20</v>
@@ -5690,13 +7570,21 @@
         <v>5.04</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H82" s="6"/>
-      <c r="I82" s="6"/>
-      <c r="J82" s="9"/>
-      <c r="K82" s="6"/>
-      <c r="L82" s="6"/>
+        <v>47</v>
+      </c>
+      <c r="H82" s="4">
+        <v>5.95</v>
+      </c>
+      <c r="I82" s="4">
+        <v>5.8</v>
+      </c>
+      <c r="J82" s="8">
+        <v>15.08</v>
+      </c>
+      <c r="K82" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="L82" s="10"/>
       <c r="M82" s="4">
         <v>1</v>
       </c>
@@ -5706,17 +7594,32 @@
       <c r="O82" s="4">
         <v>57532828</v>
       </c>
-      <c r="P82" s="10">
+      <c r="P82" s="11">
         <v>4.74</v>
       </c>
-      <c r="Q82" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="R82" s="14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18">
+      <c r="Q82" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="R82" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="S82" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="T82" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="U82" s="14">
+        <v>1</v>
+      </c>
+      <c r="V82" s="15">
+        <v>13.15</v>
+      </c>
+      <c r="W82" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -5727,7 +7630,7 @@
         <v>688062</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>154</v>
+        <v>201</v>
       </c>
       <c r="E83" s="4">
         <v>-1.39</v>
@@ -5736,13 +7639,21 @@
         <v>30.59</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H83" s="6"/>
-      <c r="I83" s="6"/>
-      <c r="J83" s="9"/>
-      <c r="K83" s="6"/>
-      <c r="L83" s="6"/>
+        <v>52</v>
+      </c>
+      <c r="H83" s="4">
+        <v>-0.62</v>
+      </c>
+      <c r="I83" s="4">
+        <v>31.6</v>
+      </c>
+      <c r="J83" s="8">
+        <v>3.3</v>
+      </c>
+      <c r="K83" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="L83" s="10"/>
       <c r="M83" s="4">
         <v>4</v>
       </c>
@@ -5755,14 +7666,29 @@
       <c r="P83" s="4">
         <v>-0.55</v>
       </c>
-      <c r="Q83" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R83" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18">
+      <c r="Q83" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R83" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S83" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T83" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U83" s="16">
+        <v>0</v>
+      </c>
+      <c r="V83" s="15">
+        <v>2.39</v>
+      </c>
+      <c r="W83" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -5773,7 +7699,7 @@
         <v>688117</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>155</v>
+        <v>202</v>
       </c>
       <c r="E84" s="4">
         <v>2.48</v>
@@ -5782,13 +7708,21 @@
         <v>35.89</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H84" s="6"/>
-      <c r="I84" s="6"/>
-      <c r="J84" s="9"/>
-      <c r="K84" s="6"/>
-      <c r="L84" s="6"/>
+        <v>52</v>
+      </c>
+      <c r="H84" s="4">
+        <v>-3.85</v>
+      </c>
+      <c r="I84" s="4">
+        <v>36.18</v>
+      </c>
+      <c r="J84" s="8">
+        <v>0.81</v>
+      </c>
+      <c r="K84" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="L84" s="10"/>
       <c r="M84" s="4">
         <v>21</v>
       </c>
@@ -5801,14 +7735,29 @@
       <c r="P84" s="4">
         <v>0.05</v>
       </c>
-      <c r="Q84" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R84" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18">
+      <c r="Q84" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R84" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S84" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T84" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U84" s="16">
+        <v>0</v>
+      </c>
+      <c r="V84" s="15">
+        <v>5.08</v>
+      </c>
+      <c r="W84" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -5819,7 +7768,7 @@
         <v>688221</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>156</v>
+        <v>203</v>
       </c>
       <c r="E85" s="4">
         <v>6.71</v>
@@ -5828,13 +7777,21 @@
         <v>14.8</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H85" s="6"/>
-      <c r="I85" s="6"/>
-      <c r="J85" s="9"/>
-      <c r="K85" s="6"/>
-      <c r="L85" s="6"/>
+        <v>52</v>
+      </c>
+      <c r="H85" s="4">
+        <v>-2.3</v>
+      </c>
+      <c r="I85" s="4">
+        <v>14.8</v>
+      </c>
+      <c r="J85" s="8">
+        <v>0</v>
+      </c>
+      <c r="K85" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="L85" s="10"/>
       <c r="M85" s="4">
         <v>2</v>
       </c>
@@ -5847,14 +7804,29 @@
       <c r="P85" s="4">
         <v>0.22</v>
       </c>
-      <c r="Q85" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R85" s="14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18">
+      <c r="Q85" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R85" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="S85" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T85" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U85" s="16">
+        <v>0</v>
+      </c>
+      <c r="V85" s="15">
+        <v>1.01</v>
+      </c>
+      <c r="W85" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -5865,7 +7837,7 @@
         <v>688291</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>157</v>
+        <v>205</v>
       </c>
       <c r="E86" s="4">
         <v>8.58</v>
@@ -5874,13 +7846,21 @@
         <v>40.75</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H86" s="6"/>
-      <c r="I86" s="6"/>
-      <c r="J86" s="9"/>
-      <c r="K86" s="6"/>
-      <c r="L86" s="6"/>
+        <v>68</v>
+      </c>
+      <c r="H86" s="4">
+        <v>-5.6</v>
+      </c>
+      <c r="I86" s="4">
+        <v>40.1</v>
+      </c>
+      <c r="J86" s="8">
+        <v>-1.6</v>
+      </c>
+      <c r="K86" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="L86" s="10"/>
       <c r="M86" s="4">
         <v>1</v>
       </c>
@@ -5890,17 +7870,32 @@
       <c r="O86" s="4">
         <v>31376271</v>
       </c>
-      <c r="P86" s="10">
+      <c r="P86" s="11">
         <v>2.02</v>
       </c>
-      <c r="Q86" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="R86" s="14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18">
+      <c r="Q86" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="R86" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="S86" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T86" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U86" s="14">
+        <v>1</v>
+      </c>
+      <c r="V86" s="15">
+        <v>9.32</v>
+      </c>
+      <c r="W86" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -5911,7 +7906,7 @@
         <v>688321</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>158</v>
+        <v>207</v>
       </c>
       <c r="E87" s="4">
         <v>-4.27</v>
@@ -5920,13 +7915,21 @@
         <v>31.4</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H87" s="6"/>
-      <c r="I87" s="6"/>
-      <c r="J87" s="9"/>
-      <c r="K87" s="6"/>
-      <c r="L87" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="H87" s="4">
+        <v>-0.32</v>
+      </c>
+      <c r="I87" s="4">
+        <v>32.3</v>
+      </c>
+      <c r="J87" s="8">
+        <v>2.87</v>
+      </c>
+      <c r="K87" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="L87" s="10"/>
       <c r="M87" s="4">
         <v>6</v>
       </c>
@@ -5939,14 +7942,29 @@
       <c r="P87" s="4">
         <v>-1.22</v>
       </c>
-      <c r="Q87" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R87" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18">
+      <c r="Q87" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R87" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S87" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T87" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U87" s="16">
+        <v>0</v>
+      </c>
+      <c r="V87" s="15">
+        <v>1.42</v>
+      </c>
+      <c r="W87" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -5957,7 +7975,7 @@
         <v>688499</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>159</v>
+        <v>209</v>
       </c>
       <c r="E88" s="4">
         <v>-1.31</v>
@@ -5966,13 +7984,21 @@
         <v>39.28</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="H88" s="6"/>
-      <c r="I88" s="6"/>
-      <c r="J88" s="9"/>
-      <c r="K88" s="6"/>
-      <c r="L88" s="6"/>
+        <v>210</v>
+      </c>
+      <c r="H88" s="4">
+        <v>0.31</v>
+      </c>
+      <c r="I88" s="4">
+        <v>41.22</v>
+      </c>
+      <c r="J88" s="8">
+        <v>4.94</v>
+      </c>
+      <c r="K88" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L88" s="10"/>
       <c r="M88" s="4">
         <v>16</v>
       </c>
@@ -5985,14 +8011,29 @@
       <c r="P88" s="4">
         <v>-0.41</v>
       </c>
-      <c r="Q88" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R88" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18">
+      <c r="Q88" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R88" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S88" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T88" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U88" s="16">
+        <v>0</v>
+      </c>
+      <c r="V88" s="15">
+        <v>6.17</v>
+      </c>
+      <c r="W88" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -6003,7 +8044,7 @@
         <v>688553</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>161</v>
+        <v>211</v>
       </c>
       <c r="E89" s="4">
         <v>-2.94</v>
@@ -6012,13 +8053,21 @@
         <v>19.45</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H89" s="6"/>
-      <c r="I89" s="6"/>
-      <c r="J89" s="9"/>
-      <c r="K89" s="6"/>
-      <c r="L89" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="H89" s="4">
+        <v>2.93</v>
+      </c>
+      <c r="I89" s="4">
+        <v>21.13</v>
+      </c>
+      <c r="J89" s="8">
+        <v>8.64</v>
+      </c>
+      <c r="K89" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="L89" s="10"/>
       <c r="M89" s="4">
         <v>3</v>
       </c>
@@ -6031,14 +8080,29 @@
       <c r="P89" s="4">
         <v>-0.45</v>
       </c>
-      <c r="Q89" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R89" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18">
+      <c r="Q89" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R89" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S89" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T89" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="U89" s="16">
+        <v>0</v>
+      </c>
+      <c r="V89" s="15">
+        <v>4.25</v>
+      </c>
+      <c r="W89" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -6049,7 +8113,7 @@
         <v>688717</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>162</v>
+        <v>213</v>
       </c>
       <c r="E90" s="4">
         <v>11.09</v>
@@ -6058,13 +8122,21 @@
         <v>66</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="H90" s="6"/>
-      <c r="I90" s="6"/>
-      <c r="J90" s="9"/>
-      <c r="K90" s="6"/>
-      <c r="L90" s="6"/>
+        <v>214</v>
+      </c>
+      <c r="H90" s="4">
+        <v>-1.7</v>
+      </c>
+      <c r="I90" s="4">
+        <v>66.56</v>
+      </c>
+      <c r="J90" s="8">
+        <v>0.85</v>
+      </c>
+      <c r="K90" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="L90" s="10"/>
       <c r="M90" s="4">
         <v>1</v>
       </c>
@@ -6074,14 +8146,29 @@
       <c r="O90" s="4">
         <v>25640824</v>
       </c>
-      <c r="P90" s="10">
+      <c r="P90" s="11">
         <v>0.31</v>
       </c>
-      <c r="Q90" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R90" s="14" t="s">
-        <v>27</v>
+      <c r="Q90" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R90" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="S90" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T90" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U90" s="16">
+        <v>0</v>
+      </c>
+      <c r="V90" s="15">
+        <v>3.23</v>
+      </c>
+      <c r="W90" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
